--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_5_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_5_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33356.48263761868</v>
+        <v>-24711.76246049327</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>273505.4517833155</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32226244.99984872</v>
+        <v>27395536.90580079</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1809746.571425962</v>
+        <v>3961501.460988103</v>
       </c>
     </row>
     <row r="11">
@@ -8772,16 +8774,16 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L12" t="n">
-        <v>96.41848977889939</v>
+        <v>73.99276488738511</v>
       </c>
       <c r="M12" t="n">
-        <v>121.083316575</v>
+        <v>57.75069317402358</v>
       </c>
       <c r="N12" t="n">
-        <v>124.6290173293239</v>
+        <v>37.99368400879879</v>
       </c>
       <c r="O12" t="n">
-        <v>102.4042030119497</v>
+        <v>67.58149565199844</v>
       </c>
       <c r="P12" t="n">
         <v>82.80031984638366</v>
@@ -9009,16 +9011,16 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L15" t="n">
-        <v>96.41848977889939</v>
+        <v>73.99276488738511</v>
       </c>
       <c r="M15" t="n">
-        <v>121.083316575</v>
+        <v>57.75069317402358</v>
       </c>
       <c r="N15" t="n">
-        <v>124.6290173293239</v>
+        <v>37.99368400879879</v>
       </c>
       <c r="O15" t="n">
-        <v>102.4042030119497</v>
+        <v>67.58149565199844</v>
       </c>
       <c r="P15" t="n">
         <v>82.80031984638366</v>
@@ -9246,19 +9248,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
-        <v>96.41848977889939</v>
+        <v>73.99276488738508</v>
       </c>
       <c r="M18" t="n">
-        <v>121.083316575</v>
+        <v>57.75069317402355</v>
       </c>
       <c r="N18" t="n">
-        <v>124.6290173293239</v>
+        <v>37.99368400879879</v>
       </c>
       <c r="O18" t="n">
-        <v>102.4042030119497</v>
+        <v>67.58149565199844</v>
       </c>
       <c r="P18" t="n">
-        <v>82.80031984638366</v>
+        <v>82.80031984638364</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9483,19 +9485,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
-        <v>96.41848977889939</v>
+        <v>73.99276488738508</v>
       </c>
       <c r="M21" t="n">
-        <v>121.083316575</v>
+        <v>57.75069317402355</v>
       </c>
       <c r="N21" t="n">
-        <v>124.6290173293239</v>
+        <v>37.99368400879879</v>
       </c>
       <c r="O21" t="n">
-        <v>102.4042030119497</v>
+        <v>67.58149565199844</v>
       </c>
       <c r="P21" t="n">
-        <v>82.80031984638366</v>
+        <v>82.80031984638364</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9720,19 +9722,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>96.41848977889939</v>
+        <v>73.99276488738508</v>
       </c>
       <c r="M24" t="n">
-        <v>121.083316575</v>
+        <v>57.75069317402355</v>
       </c>
       <c r="N24" t="n">
-        <v>124.6290173293239</v>
+        <v>37.99368400879879</v>
       </c>
       <c r="O24" t="n">
-        <v>102.4042030119497</v>
+        <v>67.58149565199844</v>
       </c>
       <c r="P24" t="n">
-        <v>82.80031984638366</v>
+        <v>82.80031984638364</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9957,19 +9959,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L27" t="n">
-        <v>96.41848977889939</v>
+        <v>73.99276488738508</v>
       </c>
       <c r="M27" t="n">
-        <v>121.083316575</v>
+        <v>57.75069317402355</v>
       </c>
       <c r="N27" t="n">
-        <v>124.6290173293239</v>
+        <v>37.99368400879879</v>
       </c>
       <c r="O27" t="n">
-        <v>102.4042030119497</v>
+        <v>67.58149565199844</v>
       </c>
       <c r="P27" t="n">
-        <v>82.80031984638366</v>
+        <v>82.80031984638364</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10194,19 +10196,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
-        <v>96.41848977889939</v>
+        <v>73.99276488738508</v>
       </c>
       <c r="M30" t="n">
-        <v>121.083316575</v>
+        <v>57.75069317402355</v>
       </c>
       <c r="N30" t="n">
-        <v>124.6290173293239</v>
+        <v>37.99368400879879</v>
       </c>
       <c r="O30" t="n">
-        <v>102.4042030119497</v>
+        <v>67.58149565199844</v>
       </c>
       <c r="P30" t="n">
-        <v>82.80031984638366</v>
+        <v>82.80031984638364</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10431,19 +10433,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L33" t="n">
-        <v>96.41848977889939</v>
+        <v>73.99276488738508</v>
       </c>
       <c r="M33" t="n">
-        <v>121.083316575</v>
+        <v>57.75069317402355</v>
       </c>
       <c r="N33" t="n">
-        <v>124.6290173293239</v>
+        <v>37.99368400879879</v>
       </c>
       <c r="O33" t="n">
-        <v>102.4042030119497</v>
+        <v>67.58149565199844</v>
       </c>
       <c r="P33" t="n">
-        <v>82.80031984638366</v>
+        <v>82.80031984638364</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10668,16 +10670,16 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L36" t="n">
-        <v>96.41848977889939</v>
+        <v>73.99276488738508</v>
       </c>
       <c r="M36" t="n">
-        <v>121.083316575</v>
+        <v>57.75069317402355</v>
       </c>
       <c r="N36" t="n">
-        <v>124.6290173293239</v>
+        <v>37.99368400879879</v>
       </c>
       <c r="O36" t="n">
-        <v>102.4042030119497</v>
+        <v>67.58149565199844</v>
       </c>
       <c r="P36" t="n">
         <v>82.80031984638366</v>
@@ -10905,16 +10907,16 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>96.41848977889939</v>
+        <v>73.99276488738508</v>
       </c>
       <c r="M39" t="n">
-        <v>121.083316575</v>
+        <v>57.75069317402355</v>
       </c>
       <c r="N39" t="n">
-        <v>124.6290173293239</v>
+        <v>37.99368400879879</v>
       </c>
       <c r="O39" t="n">
-        <v>102.4042030119497</v>
+        <v>67.58149565199844</v>
       </c>
       <c r="P39" t="n">
         <v>82.80031984638366</v>
@@ -11142,16 +11144,16 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L42" t="n">
-        <v>96.41848977889939</v>
+        <v>73.99276488738511</v>
       </c>
       <c r="M42" t="n">
-        <v>121.083316575</v>
+        <v>57.75069317402358</v>
       </c>
       <c r="N42" t="n">
-        <v>124.6290173293239</v>
+        <v>37.99368400879879</v>
       </c>
       <c r="O42" t="n">
-        <v>102.4042030119497</v>
+        <v>67.58149565199844</v>
       </c>
       <c r="P42" t="n">
         <v>82.80031984638366</v>
@@ -11306,7 +11308,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>113.7102003471159</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O44" t="n">
         <v>99.00804712831379</v>
@@ -11379,19 +11381,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L45" t="n">
-        <v>96.41848977889939</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M45" t="n">
-        <v>121.083316575</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N45" t="n">
-        <v>124.6290173293239</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O45" t="n">
-        <v>102.4042030119497</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P45" t="n">
-        <v>82.80031984638366</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -23270,49 +23272,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>423.590221574262</v>
+        <v>422.4828842901392</v>
       </c>
       <c r="H11" t="n">
-        <v>364.0964285766221</v>
+        <v>352.7559106155991</v>
       </c>
       <c r="I11" t="n">
-        <v>307.6301510626203</v>
+        <v>264.9395304164745</v>
       </c>
       <c r="J11" t="n">
-        <v>220.8145154255395</v>
+        <v>126.8306476072186</v>
       </c>
       <c r="K11" t="n">
-        <v>237.6035998847812</v>
+        <v>96.74614482954047</v>
       </c>
       <c r="L11" t="n">
-        <v>236.2164661104893</v>
+        <v>61.47033764627415</v>
       </c>
       <c r="M11" t="n">
-        <v>220.0078473867499</v>
+        <v>25.56910949601524</v>
       </c>
       <c r="N11" t="n">
-        <v>221.8064051628984</v>
+        <v>24.2214452136497</v>
       </c>
       <c r="O11" t="n">
-        <v>237.5105870759031</v>
+        <v>50.93671224565091</v>
       </c>
       <c r="P11" t="n">
-        <v>254.5105921674962</v>
+        <v>95.27410653902666</v>
       </c>
       <c r="Q11" t="n">
-        <v>269.9201738698072</v>
+        <v>150.3402047289868</v>
       </c>
       <c r="R11" t="n">
-        <v>298.2075798861928</v>
+        <v>228.6488042124114</v>
       </c>
       <c r="S11" t="n">
-        <v>267.3897500463082</v>
+        <v>242.1563016843589</v>
       </c>
       <c r="T11" t="n">
-        <v>225.5143983667847</v>
+        <v>220.6670294055369</v>
       </c>
       <c r="U11" t="n">
-        <v>248.90160553674</v>
+        <v>248.8130185540101</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,49 +23351,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>161.7691958893245</v>
+        <v>161.176718209428</v>
       </c>
       <c r="H12" t="n">
-        <v>145.0346254522244</v>
+        <v>139.3125383858557</v>
       </c>
       <c r="I12" t="n">
-        <v>142.9187864913679</v>
+        <v>122.5198839159847</v>
       </c>
       <c r="J12" t="n">
-        <v>152.7163598114938</v>
+        <v>96.74021199285306</v>
       </c>
       <c r="K12" t="n">
-        <v>132.8321428767296</v>
+        <v>37.15999050502471</v>
       </c>
       <c r="L12" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.1032497894857</v>
+        <v>74.4739936679631</v>
       </c>
       <c r="R12" t="n">
-        <v>201.2206403963539</v>
+        <v>164.4350525164654</v>
       </c>
       <c r="S12" t="n">
-        <v>222.0319792704162</v>
+        <v>211.0269662249707</v>
       </c>
       <c r="T12" t="n">
-        <v>233.1353692460508</v>
+        <v>230.7472684222575</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6601960410561</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3699888987368</v>
       </c>
       <c r="H13" t="n">
-        <v>173.1995317301106</v>
+        <v>168.7832981868615</v>
       </c>
       <c r="I13" t="n">
-        <v>186.7511453295697</v>
+        <v>171.8136191935084</v>
       </c>
       <c r="J13" t="n">
-        <v>176.9853811112088</v>
+        <v>141.8677448475604</v>
       </c>
       <c r="K13" t="n">
-        <v>160.9285108247983</v>
+        <v>103.2194467320342</v>
       </c>
       <c r="L13" t="n">
-        <v>155.0254166605068</v>
+        <v>81.17768315713714</v>
       </c>
       <c r="M13" t="n">
-        <v>156.7664471869165</v>
+        <v>78.90436642388586</v>
       </c>
       <c r="N13" t="n">
-        <v>142.0675024008435</v>
+        <v>66.05680788805012</v>
       </c>
       <c r="O13" t="n">
-        <v>160.1018542306906</v>
+        <v>89.89367516071432</v>
       </c>
       <c r="P13" t="n">
-        <v>166.3254994602277</v>
+        <v>106.2502734281359</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.5868957048492</v>
+        <v>162.9939231415902</v>
       </c>
       <c r="R13" t="n">
-        <v>249.4848999638325</v>
+        <v>227.150859979262</v>
       </c>
       <c r="S13" t="n">
-        <v>254.7116329346421</v>
+        <v>246.0552733207275</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7883730085969</v>
+        <v>218.6660521851541</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2540702168835</v>
+        <v>291.226976759563</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,49 +23509,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>423.590221574262</v>
+        <v>422.4828842901392</v>
       </c>
       <c r="H14" t="n">
-        <v>364.0964285766221</v>
+        <v>352.7559106155991</v>
       </c>
       <c r="I14" t="n">
-        <v>307.6301510626203</v>
+        <v>264.9395304164745</v>
       </c>
       <c r="J14" t="n">
-        <v>220.8145154255395</v>
+        <v>126.8306476072186</v>
       </c>
       <c r="K14" t="n">
-        <v>237.6035998847812</v>
+        <v>96.74614482954047</v>
       </c>
       <c r="L14" t="n">
-        <v>236.2164661104893</v>
+        <v>61.47033764627415</v>
       </c>
       <c r="M14" t="n">
-        <v>220.0078473867499</v>
+        <v>25.56910949601524</v>
       </c>
       <c r="N14" t="n">
-        <v>221.8064051628984</v>
+        <v>24.2214452136497</v>
       </c>
       <c r="O14" t="n">
-        <v>237.5105870759031</v>
+        <v>50.93671224565091</v>
       </c>
       <c r="P14" t="n">
-        <v>254.5105921674962</v>
+        <v>95.27410653902666</v>
       </c>
       <c r="Q14" t="n">
-        <v>269.9201738698072</v>
+        <v>150.3402047289868</v>
       </c>
       <c r="R14" t="n">
-        <v>298.2075798861928</v>
+        <v>228.6488042124114</v>
       </c>
       <c r="S14" t="n">
-        <v>267.3897500463082</v>
+        <v>242.1563016843589</v>
       </c>
       <c r="T14" t="n">
-        <v>225.5143983667847</v>
+        <v>220.6670294055369</v>
       </c>
       <c r="U14" t="n">
-        <v>248.90160553674</v>
+        <v>248.8130185540101</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,49 +23588,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>161.7691958893245</v>
+        <v>161.176718209428</v>
       </c>
       <c r="H15" t="n">
-        <v>145.0346254522244</v>
+        <v>139.3125383858557</v>
       </c>
       <c r="I15" t="n">
-        <v>142.9187864913679</v>
+        <v>122.5198839159847</v>
       </c>
       <c r="J15" t="n">
-        <v>152.7163598114938</v>
+        <v>96.74021199285306</v>
       </c>
       <c r="K15" t="n">
-        <v>132.8321428767296</v>
+        <v>37.15999050502471</v>
       </c>
       <c r="L15" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.1032497894857</v>
+        <v>74.4739936679631</v>
       </c>
       <c r="R15" t="n">
-        <v>201.2206403963539</v>
+        <v>164.4350525164654</v>
       </c>
       <c r="S15" t="n">
-        <v>222.0319792704162</v>
+        <v>211.0269662249707</v>
       </c>
       <c r="T15" t="n">
-        <v>233.1353692460508</v>
+        <v>230.7472684222575</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6601960410561</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3699888987368</v>
       </c>
       <c r="H16" t="n">
-        <v>173.1995317301106</v>
+        <v>168.7832981868615</v>
       </c>
       <c r="I16" t="n">
-        <v>186.7511453295697</v>
+        <v>171.8136191935084</v>
       </c>
       <c r="J16" t="n">
-        <v>176.9853811112088</v>
+        <v>141.8677448475604</v>
       </c>
       <c r="K16" t="n">
-        <v>160.9285108247983</v>
+        <v>103.2194467320342</v>
       </c>
       <c r="L16" t="n">
-        <v>155.0254166605068</v>
+        <v>81.17768315713714</v>
       </c>
       <c r="M16" t="n">
-        <v>156.7664471869165</v>
+        <v>78.90436642388586</v>
       </c>
       <c r="N16" t="n">
-        <v>142.0675024008435</v>
+        <v>66.05680788805012</v>
       </c>
       <c r="O16" t="n">
-        <v>160.1018542306906</v>
+        <v>89.89367516071432</v>
       </c>
       <c r="P16" t="n">
-        <v>166.3254994602277</v>
+        <v>106.2502734281359</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.5868957048492</v>
+        <v>162.9939231415902</v>
       </c>
       <c r="R16" t="n">
-        <v>249.4848999638325</v>
+        <v>227.150859979262</v>
       </c>
       <c r="S16" t="n">
-        <v>254.7116329346421</v>
+        <v>246.0552733207275</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7883730085969</v>
+        <v>218.6660521851541</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2540702168835</v>
+        <v>291.226976759563</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,49 +23746,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>423.590221574262</v>
+        <v>422.4828842901392</v>
       </c>
       <c r="H17" t="n">
-        <v>364.0964285766221</v>
+        <v>352.7559106155991</v>
       </c>
       <c r="I17" t="n">
-        <v>307.6301510626203</v>
+        <v>264.9395304164745</v>
       </c>
       <c r="J17" t="n">
-        <v>220.8145154255395</v>
+        <v>126.8306476072186</v>
       </c>
       <c r="K17" t="n">
-        <v>237.6035998847812</v>
+        <v>96.74614482954047</v>
       </c>
       <c r="L17" t="n">
-        <v>236.2164661104893</v>
+        <v>61.47033764627412</v>
       </c>
       <c r="M17" t="n">
-        <v>220.0078473867499</v>
+        <v>25.56910949601522</v>
       </c>
       <c r="N17" t="n">
-        <v>221.8064051628984</v>
+        <v>24.2214452136497</v>
       </c>
       <c r="O17" t="n">
-        <v>237.5105870759031</v>
+        <v>50.93671224565088</v>
       </c>
       <c r="P17" t="n">
-        <v>254.5105921674962</v>
+        <v>95.27410653902663</v>
       </c>
       <c r="Q17" t="n">
-        <v>269.9201738698072</v>
+        <v>150.3402047289868</v>
       </c>
       <c r="R17" t="n">
-        <v>298.2075798861928</v>
+        <v>228.6488042124114</v>
       </c>
       <c r="S17" t="n">
-        <v>267.3897500463082</v>
+        <v>242.1563016843589</v>
       </c>
       <c r="T17" t="n">
-        <v>225.5143983667847</v>
+        <v>220.6670294055369</v>
       </c>
       <c r="U17" t="n">
-        <v>248.90160553674</v>
+        <v>248.8130185540101</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,49 +23825,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>161.7691958893245</v>
+        <v>161.176718209428</v>
       </c>
       <c r="H18" t="n">
-        <v>145.0346254522244</v>
+        <v>139.3125383858557</v>
       </c>
       <c r="I18" t="n">
-        <v>142.9187864913679</v>
+        <v>122.5198839159847</v>
       </c>
       <c r="J18" t="n">
-        <v>152.7163598114938</v>
+        <v>96.74021199285306</v>
       </c>
       <c r="K18" t="n">
-        <v>132.8321428767296</v>
+        <v>37.15999050502471</v>
       </c>
       <c r="L18" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.1032497894857</v>
+        <v>74.4739936679631</v>
       </c>
       <c r="R18" t="n">
-        <v>201.2206403963539</v>
+        <v>164.4350525164654</v>
       </c>
       <c r="S18" t="n">
-        <v>222.0319792704162</v>
+        <v>211.0269662249707</v>
       </c>
       <c r="T18" t="n">
-        <v>233.1353692460508</v>
+        <v>230.7472684222575</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6601960410561</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3699888987368</v>
       </c>
       <c r="H19" t="n">
-        <v>173.1995317301106</v>
+        <v>168.7832981868615</v>
       </c>
       <c r="I19" t="n">
-        <v>186.7511453295697</v>
+        <v>171.8136191935084</v>
       </c>
       <c r="J19" t="n">
-        <v>176.9853811112088</v>
+        <v>141.8677448475604</v>
       </c>
       <c r="K19" t="n">
-        <v>160.9285108247983</v>
+        <v>103.2194467320342</v>
       </c>
       <c r="L19" t="n">
-        <v>155.0254166605068</v>
+        <v>81.17768315713714</v>
       </c>
       <c r="M19" t="n">
-        <v>156.7664471869165</v>
+        <v>78.90436642388586</v>
       </c>
       <c r="N19" t="n">
-        <v>142.0675024008435</v>
+        <v>66.0568078880501</v>
       </c>
       <c r="O19" t="n">
-        <v>160.1018542306906</v>
+        <v>89.89367516071431</v>
       </c>
       <c r="P19" t="n">
-        <v>166.3254994602277</v>
+        <v>106.2502734281359</v>
       </c>
       <c r="Q19" t="n">
-        <v>204.5868957048492</v>
+        <v>162.9939231415902</v>
       </c>
       <c r="R19" t="n">
-        <v>249.4848999638325</v>
+        <v>227.150859979262</v>
       </c>
       <c r="S19" t="n">
-        <v>254.7116329346421</v>
+        <v>246.0552733207275</v>
       </c>
       <c r="T19" t="n">
-        <v>220.7883730085969</v>
+        <v>218.6660521851541</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2540702168835</v>
+        <v>291.226976759563</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,49 +23983,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>423.590221574262</v>
+        <v>422.4828842901392</v>
       </c>
       <c r="H20" t="n">
-        <v>364.0964285766221</v>
+        <v>352.7559106155991</v>
       </c>
       <c r="I20" t="n">
-        <v>307.6301510626203</v>
+        <v>264.9395304164745</v>
       </c>
       <c r="J20" t="n">
-        <v>220.8145154255395</v>
+        <v>126.8306476072186</v>
       </c>
       <c r="K20" t="n">
-        <v>237.6035998847812</v>
+        <v>96.74614482954047</v>
       </c>
       <c r="L20" t="n">
-        <v>236.2164661104893</v>
+        <v>61.47033764627412</v>
       </c>
       <c r="M20" t="n">
-        <v>220.0078473867499</v>
+        <v>25.56910949601522</v>
       </c>
       <c r="N20" t="n">
-        <v>221.8064051628984</v>
+        <v>24.2214452136497</v>
       </c>
       <c r="O20" t="n">
-        <v>237.5105870759031</v>
+        <v>50.93671224565088</v>
       </c>
       <c r="P20" t="n">
-        <v>254.5105921674962</v>
+        <v>95.27410653902663</v>
       </c>
       <c r="Q20" t="n">
-        <v>269.9201738698072</v>
+        <v>150.3402047289868</v>
       </c>
       <c r="R20" t="n">
-        <v>298.2075798861928</v>
+        <v>228.6488042124114</v>
       </c>
       <c r="S20" t="n">
-        <v>267.3897500463082</v>
+        <v>242.1563016843589</v>
       </c>
       <c r="T20" t="n">
-        <v>225.5143983667847</v>
+        <v>220.6670294055369</v>
       </c>
       <c r="U20" t="n">
-        <v>248.90160553674</v>
+        <v>248.8130185540101</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,49 +24062,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>161.7691958893245</v>
+        <v>161.176718209428</v>
       </c>
       <c r="H21" t="n">
-        <v>145.0346254522244</v>
+        <v>139.3125383858557</v>
       </c>
       <c r="I21" t="n">
-        <v>142.9187864913679</v>
+        <v>122.5198839159847</v>
       </c>
       <c r="J21" t="n">
-        <v>152.7163598114938</v>
+        <v>96.74021199285306</v>
       </c>
       <c r="K21" t="n">
-        <v>132.8321428767296</v>
+        <v>37.15999050502471</v>
       </c>
       <c r="L21" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>150.1032497894857</v>
+        <v>74.4739936679631</v>
       </c>
       <c r="R21" t="n">
-        <v>201.2206403963539</v>
+        <v>164.4350525164654</v>
       </c>
       <c r="S21" t="n">
-        <v>222.0319792704162</v>
+        <v>211.0269662249707</v>
       </c>
       <c r="T21" t="n">
-        <v>233.1353692460508</v>
+        <v>230.7472684222575</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6601960410561</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3699888987368</v>
       </c>
       <c r="H22" t="n">
-        <v>173.1995317301106</v>
+        <v>168.7832981868615</v>
       </c>
       <c r="I22" t="n">
-        <v>186.7511453295697</v>
+        <v>171.8136191935084</v>
       </c>
       <c r="J22" t="n">
-        <v>176.9853811112088</v>
+        <v>141.8677448475604</v>
       </c>
       <c r="K22" t="n">
-        <v>160.9285108247983</v>
+        <v>103.2194467320342</v>
       </c>
       <c r="L22" t="n">
-        <v>155.0254166605068</v>
+        <v>81.17768315713714</v>
       </c>
       <c r="M22" t="n">
-        <v>156.7664471869165</v>
+        <v>78.90436642388586</v>
       </c>
       <c r="N22" t="n">
-        <v>142.0675024008435</v>
+        <v>66.0568078880501</v>
       </c>
       <c r="O22" t="n">
-        <v>160.1018542306906</v>
+        <v>89.89367516071431</v>
       </c>
       <c r="P22" t="n">
-        <v>166.3254994602277</v>
+        <v>106.2502734281359</v>
       </c>
       <c r="Q22" t="n">
-        <v>204.5868957048492</v>
+        <v>162.9939231415902</v>
       </c>
       <c r="R22" t="n">
-        <v>249.4848999638325</v>
+        <v>227.150859979262</v>
       </c>
       <c r="S22" t="n">
-        <v>254.7116329346421</v>
+        <v>246.0552733207275</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7883730085969</v>
+        <v>218.6660521851541</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2540702168835</v>
+        <v>291.226976759563</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,49 +24220,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>423.590221574262</v>
+        <v>422.4828842901392</v>
       </c>
       <c r="H23" t="n">
-        <v>364.0964285766221</v>
+        <v>352.7559106155991</v>
       </c>
       <c r="I23" t="n">
-        <v>307.6301510626203</v>
+        <v>264.9395304164745</v>
       </c>
       <c r="J23" t="n">
-        <v>220.8145154255395</v>
+        <v>126.8306476072186</v>
       </c>
       <c r="K23" t="n">
-        <v>237.6035998847812</v>
+        <v>96.74614482954047</v>
       </c>
       <c r="L23" t="n">
-        <v>236.2164661104893</v>
+        <v>61.47033764627412</v>
       </c>
       <c r="M23" t="n">
-        <v>220.0078473867499</v>
+        <v>25.56910949601522</v>
       </c>
       <c r="N23" t="n">
-        <v>221.8064051628984</v>
+        <v>24.2214452136497</v>
       </c>
       <c r="O23" t="n">
-        <v>237.5105870759031</v>
+        <v>50.93671224565088</v>
       </c>
       <c r="P23" t="n">
-        <v>254.5105921674962</v>
+        <v>95.27410653902663</v>
       </c>
       <c r="Q23" t="n">
-        <v>269.9201738698072</v>
+        <v>150.3402047289868</v>
       </c>
       <c r="R23" t="n">
-        <v>298.2075798861928</v>
+        <v>228.6488042124114</v>
       </c>
       <c r="S23" t="n">
-        <v>267.3897500463082</v>
+        <v>242.1563016843589</v>
       </c>
       <c r="T23" t="n">
-        <v>225.5143983667847</v>
+        <v>220.6670294055369</v>
       </c>
       <c r="U23" t="n">
-        <v>248.90160553674</v>
+        <v>248.8130185540101</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24297,49 +24299,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>161.7691958893245</v>
+        <v>161.176718209428</v>
       </c>
       <c r="H24" t="n">
-        <v>145.0346254522244</v>
+        <v>139.3125383858557</v>
       </c>
       <c r="I24" t="n">
-        <v>142.9187864913679</v>
+        <v>122.5198839159847</v>
       </c>
       <c r="J24" t="n">
-        <v>152.7163598114938</v>
+        <v>96.74021199285306</v>
       </c>
       <c r="K24" t="n">
-        <v>132.8321428767296</v>
+        <v>37.15999050502471</v>
       </c>
       <c r="L24" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>150.1032497894857</v>
+        <v>74.4739936679631</v>
       </c>
       <c r="R24" t="n">
-        <v>201.2206403963539</v>
+        <v>164.4350525164654</v>
       </c>
       <c r="S24" t="n">
-        <v>222.0319792704162</v>
+        <v>211.0269662249707</v>
       </c>
       <c r="T24" t="n">
-        <v>233.1353692460508</v>
+        <v>230.7472684222575</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6601960410561</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3699888987368</v>
       </c>
       <c r="H25" t="n">
-        <v>173.1995317301106</v>
+        <v>168.7832981868615</v>
       </c>
       <c r="I25" t="n">
-        <v>186.7511453295697</v>
+        <v>171.8136191935084</v>
       </c>
       <c r="J25" t="n">
-        <v>176.9853811112088</v>
+        <v>141.8677448475604</v>
       </c>
       <c r="K25" t="n">
-        <v>160.9285108247983</v>
+        <v>103.2194467320342</v>
       </c>
       <c r="L25" t="n">
-        <v>155.0254166605068</v>
+        <v>81.17768315713714</v>
       </c>
       <c r="M25" t="n">
-        <v>156.7664471869165</v>
+        <v>78.90436642388586</v>
       </c>
       <c r="N25" t="n">
-        <v>142.0675024008435</v>
+        <v>66.0568078880501</v>
       </c>
       <c r="O25" t="n">
-        <v>160.1018542306906</v>
+        <v>89.89367516071431</v>
       </c>
       <c r="P25" t="n">
-        <v>166.3254994602277</v>
+        <v>106.2502734281359</v>
       </c>
       <c r="Q25" t="n">
-        <v>204.5868957048492</v>
+        <v>162.9939231415902</v>
       </c>
       <c r="R25" t="n">
-        <v>249.4848999638325</v>
+        <v>227.150859979262</v>
       </c>
       <c r="S25" t="n">
-        <v>254.7116329346421</v>
+        <v>246.0552733207275</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7883730085969</v>
+        <v>218.6660521851541</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2540702168835</v>
+        <v>291.226976759563</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,49 +24457,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>423.590221574262</v>
+        <v>422.4828842901392</v>
       </c>
       <c r="H26" t="n">
-        <v>364.0964285766221</v>
+        <v>352.7559106155991</v>
       </c>
       <c r="I26" t="n">
-        <v>307.6301510626203</v>
+        <v>264.9395304164745</v>
       </c>
       <c r="J26" t="n">
-        <v>220.8145154255395</v>
+        <v>126.8306476072186</v>
       </c>
       <c r="K26" t="n">
-        <v>237.6035998847812</v>
+        <v>96.74614482954047</v>
       </c>
       <c r="L26" t="n">
-        <v>236.2164661104893</v>
+        <v>61.47033764627412</v>
       </c>
       <c r="M26" t="n">
-        <v>220.0078473867499</v>
+        <v>25.56910949601522</v>
       </c>
       <c r="N26" t="n">
-        <v>221.8064051628984</v>
+        <v>24.2214452136497</v>
       </c>
       <c r="O26" t="n">
-        <v>237.5105870759031</v>
+        <v>50.93671224565088</v>
       </c>
       <c r="P26" t="n">
-        <v>254.5105921674962</v>
+        <v>95.27410653902663</v>
       </c>
       <c r="Q26" t="n">
-        <v>269.9201738698072</v>
+        <v>150.3402047289868</v>
       </c>
       <c r="R26" t="n">
-        <v>298.2075798861928</v>
+        <v>228.6488042124114</v>
       </c>
       <c r="S26" t="n">
-        <v>267.3897500463082</v>
+        <v>242.1563016843589</v>
       </c>
       <c r="T26" t="n">
-        <v>225.5143983667847</v>
+        <v>220.6670294055369</v>
       </c>
       <c r="U26" t="n">
-        <v>248.90160553674</v>
+        <v>248.8130185540101</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24534,49 +24536,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>161.7691958893245</v>
+        <v>161.176718209428</v>
       </c>
       <c r="H27" t="n">
-        <v>145.0346254522244</v>
+        <v>139.3125383858557</v>
       </c>
       <c r="I27" t="n">
-        <v>142.9187864913679</v>
+        <v>122.5198839159847</v>
       </c>
       <c r="J27" t="n">
-        <v>152.7163598114938</v>
+        <v>96.74021199285306</v>
       </c>
       <c r="K27" t="n">
-        <v>132.8321428767296</v>
+        <v>37.15999050502471</v>
       </c>
       <c r="L27" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>150.1032497894857</v>
+        <v>74.4739936679631</v>
       </c>
       <c r="R27" t="n">
-        <v>201.2206403963539</v>
+        <v>164.4350525164654</v>
       </c>
       <c r="S27" t="n">
-        <v>222.0319792704162</v>
+        <v>211.0269662249707</v>
       </c>
       <c r="T27" t="n">
-        <v>233.1353692460508</v>
+        <v>230.7472684222575</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6601960410561</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3699888987368</v>
       </c>
       <c r="H28" t="n">
-        <v>173.1995317301106</v>
+        <v>168.7832981868615</v>
       </c>
       <c r="I28" t="n">
-        <v>186.7511453295697</v>
+        <v>171.8136191935084</v>
       </c>
       <c r="J28" t="n">
-        <v>176.9853811112088</v>
+        <v>141.8677448475604</v>
       </c>
       <c r="K28" t="n">
-        <v>160.9285108247983</v>
+        <v>103.2194467320342</v>
       </c>
       <c r="L28" t="n">
-        <v>155.0254166605068</v>
+        <v>81.17768315713714</v>
       </c>
       <c r="M28" t="n">
-        <v>156.7664471869165</v>
+        <v>78.90436642388586</v>
       </c>
       <c r="N28" t="n">
-        <v>142.0675024008435</v>
+        <v>66.0568078880501</v>
       </c>
       <c r="O28" t="n">
-        <v>160.1018542306906</v>
+        <v>89.89367516071431</v>
       </c>
       <c r="P28" t="n">
-        <v>166.3254994602277</v>
+        <v>106.2502734281359</v>
       </c>
       <c r="Q28" t="n">
-        <v>204.5868957048492</v>
+        <v>162.9939231415902</v>
       </c>
       <c r="R28" t="n">
-        <v>249.4848999638325</v>
+        <v>227.150859979262</v>
       </c>
       <c r="S28" t="n">
-        <v>254.7116329346421</v>
+        <v>246.0552733207275</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7883730085969</v>
+        <v>218.6660521851541</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2540702168835</v>
+        <v>291.226976759563</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24692,49 +24694,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>423.590221574262</v>
+        <v>422.4828842901392</v>
       </c>
       <c r="H29" t="n">
-        <v>364.0964285766221</v>
+        <v>352.7559106155991</v>
       </c>
       <c r="I29" t="n">
-        <v>307.6301510626203</v>
+        <v>264.9395304164745</v>
       </c>
       <c r="J29" t="n">
-        <v>220.8145154255395</v>
+        <v>126.8306476072186</v>
       </c>
       <c r="K29" t="n">
-        <v>237.6035998847812</v>
+        <v>96.74614482954047</v>
       </c>
       <c r="L29" t="n">
-        <v>236.2164661104893</v>
+        <v>61.47033764627412</v>
       </c>
       <c r="M29" t="n">
-        <v>220.0078473867499</v>
+        <v>25.56910949601522</v>
       </c>
       <c r="N29" t="n">
-        <v>221.8064051628984</v>
+        <v>24.2214452136497</v>
       </c>
       <c r="O29" t="n">
-        <v>237.5105870759031</v>
+        <v>50.93671224565088</v>
       </c>
       <c r="P29" t="n">
-        <v>254.5105921674962</v>
+        <v>95.27410653902663</v>
       </c>
       <c r="Q29" t="n">
-        <v>269.9201738698072</v>
+        <v>150.3402047289868</v>
       </c>
       <c r="R29" t="n">
-        <v>298.2075798861928</v>
+        <v>228.6488042124114</v>
       </c>
       <c r="S29" t="n">
-        <v>267.3897500463082</v>
+        <v>242.1563016843589</v>
       </c>
       <c r="T29" t="n">
-        <v>225.5143983667847</v>
+        <v>220.6670294055369</v>
       </c>
       <c r="U29" t="n">
-        <v>248.90160553674</v>
+        <v>248.8130185540101</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24771,49 +24773,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>161.7691958893245</v>
+        <v>161.176718209428</v>
       </c>
       <c r="H30" t="n">
-        <v>145.0346254522244</v>
+        <v>139.3125383858557</v>
       </c>
       <c r="I30" t="n">
-        <v>142.9187864913679</v>
+        <v>122.5198839159847</v>
       </c>
       <c r="J30" t="n">
-        <v>152.7163598114938</v>
+        <v>96.74021199285306</v>
       </c>
       <c r="K30" t="n">
-        <v>132.8321428767296</v>
+        <v>37.15999050502471</v>
       </c>
       <c r="L30" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>150.1032497894857</v>
+        <v>74.4739936679631</v>
       </c>
       <c r="R30" t="n">
-        <v>201.2206403963539</v>
+        <v>164.4350525164654</v>
       </c>
       <c r="S30" t="n">
-        <v>222.0319792704162</v>
+        <v>211.0269662249707</v>
       </c>
       <c r="T30" t="n">
-        <v>233.1353692460508</v>
+        <v>230.7472684222575</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6601960410561</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3699888987368</v>
       </c>
       <c r="H31" t="n">
-        <v>173.1995317301106</v>
+        <v>168.7832981868615</v>
       </c>
       <c r="I31" t="n">
-        <v>186.7511453295697</v>
+        <v>171.8136191935084</v>
       </c>
       <c r="J31" t="n">
-        <v>176.9853811112088</v>
+        <v>141.8677448475604</v>
       </c>
       <c r="K31" t="n">
-        <v>160.9285108247983</v>
+        <v>103.2194467320342</v>
       </c>
       <c r="L31" t="n">
-        <v>155.0254166605068</v>
+        <v>81.17768315713714</v>
       </c>
       <c r="M31" t="n">
-        <v>156.7664471869165</v>
+        <v>78.90436642388586</v>
       </c>
       <c r="N31" t="n">
-        <v>142.0675024008435</v>
+        <v>66.0568078880501</v>
       </c>
       <c r="O31" t="n">
-        <v>160.1018542306906</v>
+        <v>89.89367516071431</v>
       </c>
       <c r="P31" t="n">
-        <v>166.3254994602277</v>
+        <v>106.2502734281359</v>
       </c>
       <c r="Q31" t="n">
-        <v>204.5868957048492</v>
+        <v>162.9939231415902</v>
       </c>
       <c r="R31" t="n">
-        <v>249.4848999638325</v>
+        <v>227.150859979262</v>
       </c>
       <c r="S31" t="n">
-        <v>254.7116329346421</v>
+        <v>246.0552733207275</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7883730085969</v>
+        <v>218.6660521851541</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2540702168835</v>
+        <v>291.226976759563</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,49 +24931,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>423.590221574262</v>
+        <v>422.4828842901392</v>
       </c>
       <c r="H32" t="n">
-        <v>364.0964285766221</v>
+        <v>352.7559106155991</v>
       </c>
       <c r="I32" t="n">
-        <v>307.6301510626203</v>
+        <v>264.9395304164745</v>
       </c>
       <c r="J32" t="n">
-        <v>220.8145154255395</v>
+        <v>126.8306476072186</v>
       </c>
       <c r="K32" t="n">
-        <v>237.6035998847812</v>
+        <v>96.74614482954047</v>
       </c>
       <c r="L32" t="n">
-        <v>236.2164661104893</v>
+        <v>61.47033764627412</v>
       </c>
       <c r="M32" t="n">
-        <v>220.0078473867499</v>
+        <v>25.56910949601522</v>
       </c>
       <c r="N32" t="n">
-        <v>221.8064051628984</v>
+        <v>24.2214452136497</v>
       </c>
       <c r="O32" t="n">
-        <v>237.5105870759031</v>
+        <v>50.93671224565088</v>
       </c>
       <c r="P32" t="n">
-        <v>254.5105921674962</v>
+        <v>95.27410653902663</v>
       </c>
       <c r="Q32" t="n">
-        <v>269.9201738698072</v>
+        <v>150.3402047289868</v>
       </c>
       <c r="R32" t="n">
-        <v>298.2075798861928</v>
+        <v>228.6488042124114</v>
       </c>
       <c r="S32" t="n">
-        <v>267.3897500463082</v>
+        <v>242.1563016843589</v>
       </c>
       <c r="T32" t="n">
-        <v>225.5143983667847</v>
+        <v>220.6670294055369</v>
       </c>
       <c r="U32" t="n">
-        <v>248.90160553674</v>
+        <v>248.8130185540101</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25008,49 +25010,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>161.7691958893245</v>
+        <v>161.176718209428</v>
       </c>
       <c r="H33" t="n">
-        <v>145.0346254522244</v>
+        <v>139.3125383858557</v>
       </c>
       <c r="I33" t="n">
-        <v>142.9187864913679</v>
+        <v>122.5198839159847</v>
       </c>
       <c r="J33" t="n">
-        <v>152.7163598114938</v>
+        <v>96.74021199285306</v>
       </c>
       <c r="K33" t="n">
-        <v>132.8321428767296</v>
+        <v>37.15999050502471</v>
       </c>
       <c r="L33" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>150.1032497894857</v>
+        <v>74.4739936679631</v>
       </c>
       <c r="R33" t="n">
-        <v>201.2206403963539</v>
+        <v>164.4350525164654</v>
       </c>
       <c r="S33" t="n">
-        <v>222.0319792704162</v>
+        <v>211.0269662249707</v>
       </c>
       <c r="T33" t="n">
-        <v>233.1353692460508</v>
+        <v>230.7472684222575</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6601960410561</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3699888987368</v>
       </c>
       <c r="H34" t="n">
-        <v>173.1995317301106</v>
+        <v>168.7832981868615</v>
       </c>
       <c r="I34" t="n">
-        <v>186.7511453295697</v>
+        <v>171.8136191935084</v>
       </c>
       <c r="J34" t="n">
-        <v>176.9853811112088</v>
+        <v>141.8677448475604</v>
       </c>
       <c r="K34" t="n">
-        <v>160.9285108247983</v>
+        <v>103.2194467320342</v>
       </c>
       <c r="L34" t="n">
-        <v>155.0254166605068</v>
+        <v>81.17768315713714</v>
       </c>
       <c r="M34" t="n">
-        <v>156.7664471869165</v>
+        <v>78.90436642388586</v>
       </c>
       <c r="N34" t="n">
-        <v>142.0675024008435</v>
+        <v>66.0568078880501</v>
       </c>
       <c r="O34" t="n">
-        <v>160.1018542306906</v>
+        <v>89.89367516071431</v>
       </c>
       <c r="P34" t="n">
-        <v>166.3254994602277</v>
+        <v>106.2502734281359</v>
       </c>
       <c r="Q34" t="n">
-        <v>204.5868957048492</v>
+        <v>162.9939231415902</v>
       </c>
       <c r="R34" t="n">
-        <v>249.4848999638325</v>
+        <v>227.150859979262</v>
       </c>
       <c r="S34" t="n">
-        <v>254.7116329346421</v>
+        <v>246.0552733207275</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7883730085969</v>
+        <v>218.6660521851541</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2540702168835</v>
+        <v>291.226976759563</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,49 +25168,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>423.590221574262</v>
+        <v>422.4828842901392</v>
       </c>
       <c r="H35" t="n">
-        <v>364.0964285766221</v>
+        <v>352.7559106155991</v>
       </c>
       <c r="I35" t="n">
-        <v>307.6301510626203</v>
+        <v>264.9395304164745</v>
       </c>
       <c r="J35" t="n">
-        <v>220.8145154255395</v>
+        <v>126.8306476072186</v>
       </c>
       <c r="K35" t="n">
-        <v>237.6035998847812</v>
+        <v>96.74614482954047</v>
       </c>
       <c r="L35" t="n">
-        <v>236.2164661104893</v>
+        <v>61.47033764627412</v>
       </c>
       <c r="M35" t="n">
-        <v>220.0078473867499</v>
+        <v>25.56910949601522</v>
       </c>
       <c r="N35" t="n">
-        <v>221.8064051628984</v>
+        <v>24.2214452136497</v>
       </c>
       <c r="O35" t="n">
-        <v>237.5105870759031</v>
+        <v>50.93671224565088</v>
       </c>
       <c r="P35" t="n">
-        <v>254.5105921674962</v>
+        <v>95.27410653902663</v>
       </c>
       <c r="Q35" t="n">
-        <v>269.9201738698072</v>
+        <v>150.3402047289868</v>
       </c>
       <c r="R35" t="n">
-        <v>298.2075798861928</v>
+        <v>228.6488042124114</v>
       </c>
       <c r="S35" t="n">
-        <v>267.3897500463082</v>
+        <v>242.1563016843589</v>
       </c>
       <c r="T35" t="n">
-        <v>225.5143983667847</v>
+        <v>220.6670294055369</v>
       </c>
       <c r="U35" t="n">
-        <v>248.90160553674</v>
+        <v>248.8130185540101</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25245,49 +25247,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>161.7691958893245</v>
+        <v>161.176718209428</v>
       </c>
       <c r="H36" t="n">
-        <v>145.0346254522244</v>
+        <v>139.3125383858557</v>
       </c>
       <c r="I36" t="n">
-        <v>142.9187864913679</v>
+        <v>122.5198839159847</v>
       </c>
       <c r="J36" t="n">
-        <v>152.7163598114938</v>
+        <v>96.74021199285306</v>
       </c>
       <c r="K36" t="n">
-        <v>132.8321428767296</v>
+        <v>37.15999050502471</v>
       </c>
       <c r="L36" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>150.1032497894857</v>
+        <v>74.4739936679631</v>
       </c>
       <c r="R36" t="n">
-        <v>201.2206403963539</v>
+        <v>164.4350525164654</v>
       </c>
       <c r="S36" t="n">
-        <v>222.0319792704162</v>
+        <v>211.0269662249707</v>
       </c>
       <c r="T36" t="n">
-        <v>233.1353692460508</v>
+        <v>230.7472684222575</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6601960410561</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3699888987368</v>
       </c>
       <c r="H37" t="n">
-        <v>173.1995317301106</v>
+        <v>168.7832981868615</v>
       </c>
       <c r="I37" t="n">
-        <v>186.7511453295697</v>
+        <v>171.8136191935084</v>
       </c>
       <c r="J37" t="n">
-        <v>176.9853811112088</v>
+        <v>141.8677448475604</v>
       </c>
       <c r="K37" t="n">
-        <v>160.9285108247983</v>
+        <v>103.2194467320342</v>
       </c>
       <c r="L37" t="n">
-        <v>155.0254166605068</v>
+        <v>81.17768315713714</v>
       </c>
       <c r="M37" t="n">
-        <v>156.7664471869165</v>
+        <v>78.90436642388586</v>
       </c>
       <c r="N37" t="n">
-        <v>142.0675024008435</v>
+        <v>66.0568078880501</v>
       </c>
       <c r="O37" t="n">
-        <v>160.1018542306906</v>
+        <v>89.89367516071431</v>
       </c>
       <c r="P37" t="n">
-        <v>166.3254994602277</v>
+        <v>106.2502734281359</v>
       </c>
       <c r="Q37" t="n">
-        <v>204.5868957048492</v>
+        <v>162.9939231415902</v>
       </c>
       <c r="R37" t="n">
-        <v>249.4848999638325</v>
+        <v>227.150859979262</v>
       </c>
       <c r="S37" t="n">
-        <v>254.7116329346421</v>
+        <v>246.0552733207275</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7883730085969</v>
+        <v>218.6660521851541</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2540702168835</v>
+        <v>291.226976759563</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,49 +25405,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>423.590221574262</v>
+        <v>422.4828842901392</v>
       </c>
       <c r="H38" t="n">
-        <v>364.0964285766221</v>
+        <v>352.7559106155991</v>
       </c>
       <c r="I38" t="n">
-        <v>307.6301510626203</v>
+        <v>264.9395304164745</v>
       </c>
       <c r="J38" t="n">
-        <v>220.8145154255395</v>
+        <v>126.8306476072186</v>
       </c>
       <c r="K38" t="n">
-        <v>237.6035998847812</v>
+        <v>96.74614482954047</v>
       </c>
       <c r="L38" t="n">
-        <v>236.2164661104893</v>
+        <v>61.47033764627412</v>
       </c>
       <c r="M38" t="n">
-        <v>220.0078473867499</v>
+        <v>25.56910949601522</v>
       </c>
       <c r="N38" t="n">
-        <v>221.8064051628984</v>
+        <v>24.2214452136497</v>
       </c>
       <c r="O38" t="n">
-        <v>237.5105870759031</v>
+        <v>50.93671224565088</v>
       </c>
       <c r="P38" t="n">
-        <v>254.5105921674962</v>
+        <v>95.27410653902663</v>
       </c>
       <c r="Q38" t="n">
-        <v>269.9201738698072</v>
+        <v>150.3402047289868</v>
       </c>
       <c r="R38" t="n">
-        <v>298.2075798861928</v>
+        <v>228.6488042124114</v>
       </c>
       <c r="S38" t="n">
-        <v>267.3897500463082</v>
+        <v>242.1563016843589</v>
       </c>
       <c r="T38" t="n">
-        <v>225.5143983667847</v>
+        <v>220.6670294055369</v>
       </c>
       <c r="U38" t="n">
-        <v>248.90160553674</v>
+        <v>248.8130185540101</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25482,49 +25484,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>161.7691958893245</v>
+        <v>161.176718209428</v>
       </c>
       <c r="H39" t="n">
-        <v>145.0346254522244</v>
+        <v>139.3125383858557</v>
       </c>
       <c r="I39" t="n">
-        <v>142.9187864913679</v>
+        <v>122.5198839159847</v>
       </c>
       <c r="J39" t="n">
-        <v>152.7163598114938</v>
+        <v>96.74021199285306</v>
       </c>
       <c r="K39" t="n">
-        <v>132.8321428767296</v>
+        <v>37.15999050502471</v>
       </c>
       <c r="L39" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>150.1032497894857</v>
+        <v>74.4739936679631</v>
       </c>
       <c r="R39" t="n">
-        <v>201.2206403963539</v>
+        <v>164.4350525164654</v>
       </c>
       <c r="S39" t="n">
-        <v>222.0319792704162</v>
+        <v>211.0269662249707</v>
       </c>
       <c r="T39" t="n">
-        <v>233.1353692460508</v>
+        <v>230.7472684222575</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6601960410561</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3699888987368</v>
       </c>
       <c r="H40" t="n">
-        <v>173.1995317301106</v>
+        <v>168.7832981868615</v>
       </c>
       <c r="I40" t="n">
-        <v>186.7511453295697</v>
+        <v>171.8136191935084</v>
       </c>
       <c r="J40" t="n">
-        <v>176.9853811112088</v>
+        <v>141.8677448475604</v>
       </c>
       <c r="K40" t="n">
-        <v>160.9285108247983</v>
+        <v>103.2194467320342</v>
       </c>
       <c r="L40" t="n">
-        <v>155.0254166605068</v>
+        <v>81.17768315713714</v>
       </c>
       <c r="M40" t="n">
-        <v>156.7664471869165</v>
+        <v>78.90436642388586</v>
       </c>
       <c r="N40" t="n">
-        <v>142.0675024008435</v>
+        <v>66.0568078880501</v>
       </c>
       <c r="O40" t="n">
-        <v>160.1018542306906</v>
+        <v>89.89367516071431</v>
       </c>
       <c r="P40" t="n">
-        <v>166.3254994602277</v>
+        <v>106.2502734281359</v>
       </c>
       <c r="Q40" t="n">
-        <v>204.5868957048492</v>
+        <v>162.9939231415902</v>
       </c>
       <c r="R40" t="n">
-        <v>249.4848999638325</v>
+        <v>227.150859979262</v>
       </c>
       <c r="S40" t="n">
-        <v>254.7116329346421</v>
+        <v>246.0552733207275</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7883730085969</v>
+        <v>218.6660521851541</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2540702168835</v>
+        <v>291.226976759563</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,49 +25642,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>423.590221574262</v>
+        <v>422.4828842901392</v>
       </c>
       <c r="H41" t="n">
-        <v>364.0964285766221</v>
+        <v>352.7559106155991</v>
       </c>
       <c r="I41" t="n">
-        <v>307.6301510626203</v>
+        <v>264.9395304164745</v>
       </c>
       <c r="J41" t="n">
-        <v>220.8145154255395</v>
+        <v>126.8306476072186</v>
       </c>
       <c r="K41" t="n">
-        <v>237.6035998847812</v>
+        <v>96.74614482954047</v>
       </c>
       <c r="L41" t="n">
-        <v>236.2164661104893</v>
+        <v>61.47033764627415</v>
       </c>
       <c r="M41" t="n">
-        <v>220.0078473867499</v>
+        <v>25.56910949601524</v>
       </c>
       <c r="N41" t="n">
-        <v>221.8064051628984</v>
+        <v>24.2214452136497</v>
       </c>
       <c r="O41" t="n">
-        <v>237.5105870759031</v>
+        <v>50.93671224565091</v>
       </c>
       <c r="P41" t="n">
-        <v>254.5105921674962</v>
+        <v>95.27410653902666</v>
       </c>
       <c r="Q41" t="n">
-        <v>269.9201738698072</v>
+        <v>150.3402047289868</v>
       </c>
       <c r="R41" t="n">
-        <v>298.2075798861928</v>
+        <v>228.6488042124114</v>
       </c>
       <c r="S41" t="n">
-        <v>267.3897500463082</v>
+        <v>242.1563016843589</v>
       </c>
       <c r="T41" t="n">
-        <v>225.5143983667847</v>
+        <v>220.6670294055369</v>
       </c>
       <c r="U41" t="n">
-        <v>248.90160553674</v>
+        <v>248.8130185540101</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25719,49 +25721,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>161.7691958893245</v>
+        <v>161.176718209428</v>
       </c>
       <c r="H42" t="n">
-        <v>145.0346254522244</v>
+        <v>139.3125383858557</v>
       </c>
       <c r="I42" t="n">
-        <v>142.9187864913679</v>
+        <v>122.5198839159847</v>
       </c>
       <c r="J42" t="n">
-        <v>152.7163598114938</v>
+        <v>96.74021199285306</v>
       </c>
       <c r="K42" t="n">
-        <v>132.8321428767296</v>
+        <v>37.15999050502471</v>
       </c>
       <c r="L42" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>150.1032497894857</v>
+        <v>74.4739936679631</v>
       </c>
       <c r="R42" t="n">
-        <v>201.2206403963539</v>
+        <v>164.4350525164654</v>
       </c>
       <c r="S42" t="n">
-        <v>222.0319792704162</v>
+        <v>211.0269662249707</v>
       </c>
       <c r="T42" t="n">
-        <v>233.1353692460508</v>
+        <v>230.7472684222575</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6601960410561</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3699888987368</v>
       </c>
       <c r="H43" t="n">
-        <v>173.1995317301106</v>
+        <v>168.7832981868615</v>
       </c>
       <c r="I43" t="n">
-        <v>186.7511453295697</v>
+        <v>171.8136191935084</v>
       </c>
       <c r="J43" t="n">
-        <v>176.9853811112088</v>
+        <v>141.8677448475604</v>
       </c>
       <c r="K43" t="n">
-        <v>160.9285108247983</v>
+        <v>103.2194467320342</v>
       </c>
       <c r="L43" t="n">
-        <v>155.0254166605068</v>
+        <v>81.17768315713714</v>
       </c>
       <c r="M43" t="n">
-        <v>156.7664471869165</v>
+        <v>78.90436642388586</v>
       </c>
       <c r="N43" t="n">
-        <v>142.0675024008435</v>
+        <v>66.05680788805012</v>
       </c>
       <c r="O43" t="n">
-        <v>160.1018542306906</v>
+        <v>89.89367516071432</v>
       </c>
       <c r="P43" t="n">
-        <v>166.3254994602277</v>
+        <v>106.2502734281359</v>
       </c>
       <c r="Q43" t="n">
-        <v>204.5868957048492</v>
+        <v>162.9939231415902</v>
       </c>
       <c r="R43" t="n">
-        <v>249.4848999638325</v>
+        <v>227.150859979262</v>
       </c>
       <c r="S43" t="n">
-        <v>254.7116329346421</v>
+        <v>246.0552733207275</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7883730085969</v>
+        <v>218.6660521851541</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2540702168835</v>
+        <v>291.226976759563</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25877,49 +25879,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>423.590221574262</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H44" t="n">
-        <v>364.0964285766221</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I44" t="n">
-        <v>307.6301510626203</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J44" t="n">
-        <v>220.8145154255395</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K44" t="n">
-        <v>237.6035998847812</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L44" t="n">
-        <v>236.2164661104893</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M44" t="n">
-        <v>220.0078473867499</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>221.8064051628984</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>237.5105870759031</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P44" t="n">
-        <v>254.5105921674962</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q44" t="n">
-        <v>269.9201738698072</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R44" t="n">
-        <v>298.2075798861928</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S44" t="n">
-        <v>267.3897500463082</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T44" t="n">
-        <v>225.5143983667847</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U44" t="n">
-        <v>248.90160553674</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,49 +25958,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>161.7691958893245</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H45" t="n">
-        <v>145.0346254522244</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I45" t="n">
-        <v>142.9187864913679</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J45" t="n">
-        <v>152.7163598114938</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K45" t="n">
-        <v>132.8321428767296</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L45" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>150.1032497894857</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R45" t="n">
-        <v>201.2206403963539</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S45" t="n">
-        <v>222.0319792704162</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T45" t="n">
-        <v>233.1353692460508</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.8667022829468</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H46" t="n">
-        <v>173.1995317301106</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I46" t="n">
-        <v>186.7511453295697</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J46" t="n">
-        <v>176.9853811112088</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K46" t="n">
-        <v>160.9285108247983</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L46" t="n">
-        <v>155.0254166605068</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M46" t="n">
-        <v>156.7664471869165</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N46" t="n">
-        <v>142.0675024008435</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O46" t="n">
-        <v>160.1018542306906</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P46" t="n">
-        <v>166.3254994602277</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q46" t="n">
-        <v>204.5868957048492</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R46" t="n">
-        <v>249.4848999638325</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S46" t="n">
-        <v>254.7116329346421</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7883730085969</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>156510.1904102376</v>
+        <v>402652.7552123222</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>156510.1904102376</v>
+        <v>402652.7552123222</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>156510.1904102376</v>
+        <v>402652.7552123222</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>156510.1904102376</v>
+        <v>402652.7552123222</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>156510.1904102376</v>
+        <v>402652.7552123222</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>156510.1904102376</v>
+        <v>402652.7552123222</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>156510.1904102376</v>
+        <v>402652.7552123222</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>156510.1904102376</v>
+        <v>402652.7552123222</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>156510.1904102376</v>
+        <v>402652.7552123222</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>156510.1904102376</v>
+        <v>402652.7552123222</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>156510.1904102376</v>
+        <v>402652.7552123222</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>156510.1904102376</v>
+        <v>430305.7233078531</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>18687.7839295806</v>
       </c>
       <c r="E2" t="n">
-        <v>18687.7839295806</v>
+        <v>50589.82414424398</v>
       </c>
       <c r="F2" t="n">
-        <v>18687.7839295806</v>
+        <v>50589.82414424398</v>
       </c>
       <c r="G2" t="n">
-        <v>18687.7839295806</v>
+        <v>50589.82414424398</v>
       </c>
       <c r="H2" t="n">
-        <v>18687.7839295806</v>
+        <v>50589.82414424398</v>
       </c>
       <c r="I2" t="n">
-        <v>18687.7839295806</v>
+        <v>50589.82414424398</v>
       </c>
       <c r="J2" t="n">
-        <v>18687.7839295806</v>
+        <v>50589.82414424398</v>
       </c>
       <c r="K2" t="n">
-        <v>18687.7839295806</v>
+        <v>50589.82414424398</v>
       </c>
       <c r="L2" t="n">
-        <v>18687.7839295806</v>
+        <v>50589.82414424398</v>
       </c>
       <c r="M2" t="n">
-        <v>18687.7839295806</v>
+        <v>50589.82414424398</v>
       </c>
       <c r="N2" t="n">
-        <v>18687.7839295806</v>
+        <v>50589.82414424398</v>
       </c>
       <c r="O2" t="n">
-        <v>18687.7839295806</v>
+        <v>50589.82414424398</v>
       </c>
       <c r="P2" t="n">
-        <v>18687.7839295806</v>
+        <v>54221.98909211703</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>221297.4763989404</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>24108.68237143111</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>11679.86495598788</v>
       </c>
       <c r="E4" t="n">
-        <v>11679.86495598788</v>
+        <v>10581.61809443115</v>
       </c>
       <c r="F4" t="n">
-        <v>11679.86495598788</v>
+        <v>10581.61809443115</v>
       </c>
       <c r="G4" t="n">
-        <v>11679.86495598788</v>
+        <v>10581.61809443115</v>
       </c>
       <c r="H4" t="n">
-        <v>11679.86495598788</v>
+        <v>10581.61809443115</v>
       </c>
       <c r="I4" t="n">
-        <v>11679.86495598788</v>
+        <v>10581.61809443115</v>
       </c>
       <c r="J4" t="n">
-        <v>11679.86495598788</v>
+        <v>10581.61809443115</v>
       </c>
       <c r="K4" t="n">
-        <v>11679.86495598788</v>
+        <v>10581.61809443115</v>
       </c>
       <c r="L4" t="n">
-        <v>11679.86495598788</v>
+        <v>10581.61809443115</v>
       </c>
       <c r="M4" t="n">
-        <v>11679.86495598788</v>
+        <v>10581.61809443115</v>
       </c>
       <c r="N4" t="n">
-        <v>11679.86495598788</v>
+        <v>10581.61809443115</v>
       </c>
       <c r="O4" t="n">
-        <v>11679.86495598788</v>
+        <v>10581.61809443115</v>
       </c>
       <c r="P4" t="n">
-        <v>11679.86495598788</v>
+        <v>10085.30784394609</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>6004.813257477132</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>6004.813257477132</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>6004.813257477132</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>6004.813257477132</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6004.813257477132</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6004.813257477132</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>6004.813257477132</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>6004.813257477132</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>6004.813257477132</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>6004.813257477132</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>6004.813257477132</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>6794.459031509247</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-26619.68102640727</v>
       </c>
       <c r="E6" t="n">
-        <v>7007.918973592727</v>
+        <v>-187294.0836066047</v>
       </c>
       <c r="F6" t="n">
-        <v>7007.918973592725</v>
+        <v>34003.3927923357</v>
       </c>
       <c r="G6" t="n">
-        <v>7007.918973592727</v>
+        <v>34003.3927923357</v>
       </c>
       <c r="H6" t="n">
-        <v>7007.918973592725</v>
+        <v>34003.3927923357</v>
       </c>
       <c r="I6" t="n">
-        <v>7007.918973592727</v>
+        <v>34003.3927923357</v>
       </c>
       <c r="J6" t="n">
-        <v>7007.918973592725</v>
+        <v>34003.3927923357</v>
       </c>
       <c r="K6" t="n">
-        <v>7007.918973592727</v>
+        <v>34003.3927923357</v>
       </c>
       <c r="L6" t="n">
-        <v>7007.918973592725</v>
+        <v>34003.3927923357</v>
       </c>
       <c r="M6" t="n">
-        <v>7007.918973592727</v>
+        <v>34003.3927923357</v>
       </c>
       <c r="N6" t="n">
-        <v>7007.918973592725</v>
+        <v>34003.3927923357</v>
       </c>
       <c r="O6" t="n">
-        <v>7007.918973592727</v>
+        <v>34003.3927923357</v>
       </c>
       <c r="P6" t="n">
-        <v>7007.918973592725</v>
+        <v>13233.53984523059</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>275.4501494255565</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>275.4501494255565</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>275.4501494255565</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>275.4501494255565</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>275.4501494255565</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>275.4501494255565</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>275.4501494255565</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>275.4501494255565</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>275.4501494255565</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>275.4501494255565</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>275.4501494255565</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>311.6724326380389</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>275.4501494255565</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>36.2222832124823</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.107337284122839</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>11.34051796102303</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.6906206461458</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>93.98386781832092</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>140.8574550552407</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>174.7461284642151</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>194.4387378907346</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>197.5849599492487</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>186.5738748302522</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>159.2364856284696</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>119.5799691408203</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>69.55877567378137</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>25.23344836194923</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>4.847368961247732</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.08858698272982712</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.5924776798964799</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>5.722087066368637</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>20.39890257538319</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>55.97614781864069</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>95.67215237170485</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>128.6430155406809</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>150.1203314369282</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>154.0935699130762</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>140.9655118480015</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>113.1372509970743</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>75.62925612152262</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>36.78558787988848</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>11.00501304544558</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2.388100823793267</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.03897879473003159</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.4967133842100198</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4.416233543249088</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>14.93752613606133</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>35.1176362636484</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>57.70906409276411</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>73.8477335033697</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>77.86208076303065</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>76.01069451279335</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>70.20817906997628</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>60.07522603209183</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>41.59297256325902</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.33403998457052</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>8.656359613914615</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.122320823442811</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.02709345732054657</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.107337284122839</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>11.34051796102303</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.6906206461458</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>93.98386781832092</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>140.8574550552407</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>174.7461284642151</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>194.4387378907346</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>197.5849599492487</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>186.5738748302522</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>159.2364856284696</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>119.5799691408203</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>69.55877567378137</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>25.23344836194923</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>4.847368961247732</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.08858698272982712</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.5924776798964799</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>5.722087066368637</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>20.39890257538319</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>55.97614781864069</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>95.67215237170485</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>128.6430155406809</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>150.1203314369282</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>154.0935699130762</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>140.9655118480015</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>113.1372509970743</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>75.62925612152262</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>36.78558787988848</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>11.00501304544558</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2.388100823793267</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.03897879473003159</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.4967133842100198</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>4.416233543249088</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>14.93752613606133</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>35.1176362636484</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>57.70906409276411</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>73.8477335033697</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>77.86208076303065</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>76.01069451279335</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>70.20817906997628</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>60.07522603209183</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>41.59297256325902</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.33403998457052</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>8.656359613914615</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>2.122320823442811</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.02709345732054657</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.107337284122839</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>11.34051796102303</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>42.69062064614581</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>93.98386781832093</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>140.8574550552407</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>174.7461284642151</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>194.4387378907347</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>197.5849599492487</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>186.5738748302522</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>159.2364856284696</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>119.5799691408204</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>69.55877567378137</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>25.23344836194923</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>4.847368961247732</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.08858698272982714</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.59247767989648</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>5.722087066368637</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>20.3989025753832</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>55.9761478186407</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>95.67215237170485</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>128.6430155406809</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>150.1203314369283</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>154.0935699130762</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>140.9655118480015</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>113.1372509970743</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>75.62925612152262</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>36.78558787988849</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>11.00501304544558</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>2.388100823793267</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.03897879473003159</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.4967133842100199</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4.416233543249089</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>14.93752613606133</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>35.1176362636484</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>57.70906409276412</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>73.8477335033697</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>77.86208076303065</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>76.01069451279336</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>70.2081790699763</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>60.07522603209183</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>41.59297256325903</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>22.33403998457052</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>8.656359613914615</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.122320823442811</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.02709345732054657</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.107337284122839</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>11.34051796102303</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>42.69062064614581</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>93.98386781832093</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>140.8574550552407</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>174.7461284642151</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>194.4387378907347</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>197.5849599492487</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>186.5738748302522</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>159.2364856284696</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>119.5799691408204</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>69.55877567378137</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>25.23344836194923</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>4.847368961247732</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.08858698272982714</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.59247767989648</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>5.722087066368637</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>20.3989025753832</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>55.9761478186407</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>95.67215237170485</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>128.6430155406809</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>150.1203314369283</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>154.0935699130762</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>140.9655118480015</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>113.1372509970743</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>75.62925612152262</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>36.78558787988849</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>11.00501304544558</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>2.388100823793267</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.03897879473003159</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.4967133842100199</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>4.416233543249089</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>14.93752613606133</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>35.1176362636484</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>57.70906409276412</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>73.8477335033697</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>77.86208076303065</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>76.01069451279336</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>70.2081790699763</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>60.07522603209183</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>41.59297256325903</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>22.33403998457052</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>8.656359613914615</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>2.122320823442811</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.02709345732054657</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.107337284122839</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>11.34051796102303</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>42.69062064614581</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>93.98386781832093</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>140.8574550552407</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>174.7461284642151</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>194.4387378907347</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>197.5849599492487</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>186.5738748302522</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>159.2364856284696</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>119.5799691408204</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>69.55877567378137</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>25.23344836194923</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>4.847368961247732</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.08858698272982714</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.59247767989648</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>5.722087066368637</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>20.3989025753832</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>55.9761478186407</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>95.67215237170485</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>128.6430155406809</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>150.1203314369283</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>154.0935699130762</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>140.9655118480015</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>113.1372509970743</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>75.62925612152262</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>36.78558787988849</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>11.00501304544558</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>2.388100823793267</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.03897879473003159</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.4967133842100199</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.416233543249089</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>14.93752613606133</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>35.1176362636484</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>57.70906409276412</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>73.8477335033697</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>77.86208076303065</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>76.01069451279336</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>70.2081790699763</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>60.07522603209183</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>41.59297256325903</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>22.33403998457052</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>8.656359613914615</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>2.122320823442811</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.02709345732054657</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.107337284122839</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>11.34051796102303</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.69062064614581</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.98386781832093</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>140.8574550552407</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>174.7461284642151</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>194.4387378907347</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>197.5849599492487</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>186.5738748302522</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>159.2364856284696</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>119.5799691408204</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>69.55877567378137</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>25.23344836194923</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>4.847368961247732</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.08858698272982714</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.59247767989648</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>5.722087066368637</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>20.3989025753832</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>55.9761478186407</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>95.67215237170485</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>128.6430155406809</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>150.1203314369283</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>154.0935699130762</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>140.9655118480015</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>113.1372509970743</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>75.62925612152262</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>36.78558787988849</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>11.00501304544558</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2.388100823793267</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.03897879473003159</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.4967133842100199</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>4.416233543249089</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>14.93752613606133</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>35.1176362636484</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>57.70906409276412</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>73.8477335033697</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>77.86208076303065</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>76.01069451279336</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>70.2081790699763</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>60.07522603209183</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>41.59297256325903</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>22.33403998457052</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>8.656359613914615</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2.122320823442811</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.02709345732054657</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.107337284122839</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>11.34051796102303</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.69062064614581</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.98386781832093</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>140.8574550552407</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>174.7461284642151</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>194.4387378907347</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>197.5849599492487</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>186.5738748302522</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>159.2364856284696</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>119.5799691408204</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>69.55877567378137</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>25.23344836194923</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>4.847368961247732</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.08858698272982714</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.59247767989648</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>5.722087066368637</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>20.3989025753832</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>55.9761478186407</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>95.67215237170485</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>128.6430155406809</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>150.1203314369283</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>154.0935699130762</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>140.9655118480015</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>113.1372509970743</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>75.62925612152262</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>36.78558787988849</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>11.00501304544558</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2.388100823793267</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.03897879473003159</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.4967133842100199</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4.416233543249089</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>14.93752613606133</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>35.1176362636484</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>57.70906409276412</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>73.8477335033697</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>77.86208076303065</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>76.01069451279336</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>70.2081790699763</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>60.07522603209183</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>41.59297256325903</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>22.33403998457052</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>8.656359613914615</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2.122320823442811</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.02709345732054657</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.107337284122839</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>11.34051796102303</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>42.69062064614581</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>93.98386781832093</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>140.8574550552407</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>174.7461284642151</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>194.4387378907347</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>197.5849599492487</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>186.5738748302522</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>159.2364856284696</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>119.5799691408204</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>69.55877567378137</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>25.23344836194923</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>4.847368961247732</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.08858698272982714</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.59247767989648</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>5.722087066368637</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>20.3989025753832</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>55.9761478186407</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>95.67215237170485</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>128.6430155406809</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>150.1203314369283</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>154.0935699130762</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>140.9655118480015</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>113.1372509970743</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>75.62925612152262</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>36.78558787988849</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>11.00501304544558</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>2.388100823793267</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.03897879473003159</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.4967133842100199</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4.416233543249089</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>14.93752613606133</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>35.1176362636484</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>57.70906409276412</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>73.8477335033697</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>77.86208076303065</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>76.01069451279336</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>70.2081790699763</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>60.07522603209183</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>41.59297256325903</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>22.33403998457052</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>8.656359613914615</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2.122320823442811</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.02709345732054657</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.107337284122839</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>11.34051796102303</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>42.69062064614581</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>93.98386781832093</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>140.8574550552407</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>174.7461284642151</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>194.4387378907347</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>197.5849599492487</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>186.5738748302522</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>159.2364856284696</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>119.5799691408204</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>69.55877567378137</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>25.23344836194923</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>4.847368961247732</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.08858698272982714</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.59247767989648</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>5.722087066368637</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>20.3989025753832</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>55.9761478186407</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>95.67215237170485</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>128.6430155406809</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>150.1203314369283</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>154.0935699130762</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>140.9655118480015</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>113.1372509970743</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>75.62925612152262</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>36.78558787988849</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>11.00501304544558</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>2.388100823793267</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.03897879473003159</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.4967133842100199</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.416233543249089</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>14.93752613606133</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>35.1176362636484</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>57.70906409276412</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>73.8477335033697</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>77.86208076303065</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>76.01069451279336</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>70.2081790699763</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>60.07522603209183</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>41.59297256325903</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>22.33403998457052</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>8.656359613914615</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>2.122320823442811</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.02709345732054657</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.107337284122839</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>11.34051796102303</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>42.69062064614581</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>93.98386781832093</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>140.8574550552407</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>174.7461284642151</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>194.4387378907347</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>197.5849599492487</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>186.5738748302522</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>159.2364856284696</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>119.5799691408204</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>69.55877567378137</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>25.23344836194923</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>4.847368961247732</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.08858698272982714</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.59247767989648</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>5.722087066368637</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>20.3989025753832</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>55.9761478186407</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>95.67215237170485</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>128.6430155406809</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>150.1203314369283</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>154.0935699130762</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>140.9655118480015</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>113.1372509970743</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>75.62925612152262</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>36.78558787988849</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>11.00501304544558</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>2.388100823793267</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.03897879473003159</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.4967133842100199</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>4.416233543249089</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>14.93752613606133</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>35.1176362636484</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>57.70906409276412</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>73.8477335033697</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>77.86208076303065</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>76.01069451279336</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>70.2081790699763</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>60.07522603209183</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>41.59297256325903</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>22.33403998457052</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>8.656359613914615</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>2.122320823442811</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.02709345732054657</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.107337284122839</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>11.34051796102303</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>42.6906206461458</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>93.98386781832092</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>140.8574550552407</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>174.7461284642151</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>194.4387378907346</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>197.5849599492487</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>186.5738748302522</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>159.2364856284696</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>119.5799691408203</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>69.55877567378137</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>25.23344836194923</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>4.847368961247732</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.08858698272982712</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.5924776798964799</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>5.722087066368637</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>20.39890257538319</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>55.97614781864069</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>95.67215237170485</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>128.6430155406809</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>150.1203314369282</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>154.0935699130762</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>140.9655118480015</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>113.1372509970743</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>75.62925612152262</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>36.78558787988848</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>11.00501304544558</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>2.388100823793267</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.03897879473003159</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.4967133842100198</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>4.416233543249088</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>14.93752613606133</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>35.1176362636484</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>57.70906409276411</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>73.8477335033697</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>77.86208076303065</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>76.01069451279335</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>70.20817906997628</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>60.07522603209183</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>41.59297256325902</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>22.33403998457052</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>8.656359613914615</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>2.122320823442811</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.02709345732054657</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_5_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_5_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24711.76246049327</v>
+        <v>-179906.8808873507</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>273505.4517833155</v>
+        <v>590948.8332937378</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27395536.90580079</v>
+        <v>26523443.1649504</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3961501.460988103</v>
+        <v>4345022.159674792</v>
       </c>
     </row>
     <row r="11">
@@ -8698,10 +8698,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>116.8735187081365</v>
+        <v>94.50134181136153</v>
       </c>
       <c r="N11" t="n">
-        <v>113.7102003471159</v>
+        <v>89.21461903306823</v>
       </c>
       <c r="O11" t="n">
         <v>99.00804712831379</v>
@@ -8774,19 +8774,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L12" t="n">
-        <v>73.99276488738511</v>
+        <v>42.27423123832554</v>
       </c>
       <c r="M12" t="n">
-        <v>57.75069317402358</v>
+        <v>20.73666047215161</v>
       </c>
       <c r="N12" t="n">
-        <v>37.99368400879879</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>67.58149565199844</v>
+        <v>32.82469745261386</v>
       </c>
       <c r="P12" t="n">
-        <v>82.80031984638366</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8935,10 +8935,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>116.8735187081365</v>
+        <v>94.50134181136153</v>
       </c>
       <c r="N14" t="n">
-        <v>113.7102003471159</v>
+        <v>89.21461903306823</v>
       </c>
       <c r="O14" t="n">
         <v>99.00804712831379</v>
@@ -9011,19 +9011,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L15" t="n">
-        <v>73.99276488738511</v>
+        <v>42.27423123832554</v>
       </c>
       <c r="M15" t="n">
-        <v>57.75069317402358</v>
+        <v>20.73666047215161</v>
       </c>
       <c r="N15" t="n">
-        <v>37.99368400879879</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>67.58149565199844</v>
+        <v>32.82469745261386</v>
       </c>
       <c r="P15" t="n">
-        <v>82.80031984638366</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9172,10 +9172,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>116.8735187081365</v>
+        <v>94.50134181136153</v>
       </c>
       <c r="N17" t="n">
-        <v>113.7102003471159</v>
+        <v>89.21461903306823</v>
       </c>
       <c r="O17" t="n">
         <v>99.00804712831379</v>
@@ -9248,19 +9248,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
-        <v>73.99276488738508</v>
+        <v>42.27423123832554</v>
       </c>
       <c r="M18" t="n">
-        <v>57.75069317402355</v>
+        <v>20.73666047215161</v>
       </c>
       <c r="N18" t="n">
-        <v>37.99368400879879</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>67.58149565199844</v>
+        <v>32.82469745261386</v>
       </c>
       <c r="P18" t="n">
-        <v>82.80031984638364</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9409,10 +9409,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>116.8735187081365</v>
+        <v>94.50134181136153</v>
       </c>
       <c r="N20" t="n">
-        <v>113.7102003471159</v>
+        <v>89.21461903306823</v>
       </c>
       <c r="O20" t="n">
         <v>99.00804712831379</v>
@@ -9485,19 +9485,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
-        <v>73.99276488738508</v>
+        <v>42.27423123832554</v>
       </c>
       <c r="M21" t="n">
-        <v>57.75069317402355</v>
+        <v>20.73666047215161</v>
       </c>
       <c r="N21" t="n">
-        <v>37.99368400879879</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>67.58149565199844</v>
+        <v>32.82469745261386</v>
       </c>
       <c r="P21" t="n">
-        <v>82.80031984638364</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9646,10 +9646,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>116.8735187081365</v>
+        <v>94.50134181136153</v>
       </c>
       <c r="N23" t="n">
-        <v>113.7102003471159</v>
+        <v>89.21461903306823</v>
       </c>
       <c r="O23" t="n">
         <v>99.00804712831379</v>
@@ -9722,19 +9722,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>73.99276488738508</v>
+        <v>42.27423123832554</v>
       </c>
       <c r="M24" t="n">
-        <v>57.75069317402355</v>
+        <v>20.73666047215161</v>
       </c>
       <c r="N24" t="n">
-        <v>37.99368400879879</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>67.58149565199844</v>
+        <v>32.82469745261386</v>
       </c>
       <c r="P24" t="n">
-        <v>82.80031984638364</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9883,10 +9883,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>116.8735187081365</v>
+        <v>94.50134181136153</v>
       </c>
       <c r="N26" t="n">
-        <v>113.7102003471159</v>
+        <v>89.21461903306823</v>
       </c>
       <c r="O26" t="n">
         <v>99.00804712831379</v>
@@ -9959,19 +9959,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L27" t="n">
-        <v>73.99276488738508</v>
+        <v>42.27423123832554</v>
       </c>
       <c r="M27" t="n">
-        <v>57.75069317402355</v>
+        <v>20.73666047215161</v>
       </c>
       <c r="N27" t="n">
-        <v>37.99368400879879</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>67.58149565199844</v>
+        <v>32.82469745261386</v>
       </c>
       <c r="P27" t="n">
-        <v>82.80031984638364</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10120,10 +10120,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>116.8735187081365</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N29" t="n">
-        <v>113.7102003471159</v>
+        <v>89.2146190330682</v>
       </c>
       <c r="O29" t="n">
         <v>99.00804712831379</v>
@@ -10196,19 +10196,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
-        <v>73.99276488738508</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M30" t="n">
-        <v>57.75069317402355</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N30" t="n">
-        <v>37.99368400879879</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>67.58149565199844</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P30" t="n">
-        <v>82.80031984638364</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10357,10 +10357,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>116.8735187081365</v>
+        <v>94.50134181136153</v>
       </c>
       <c r="N32" t="n">
-        <v>113.7102003471159</v>
+        <v>89.21461903306823</v>
       </c>
       <c r="O32" t="n">
         <v>99.00804712831379</v>
@@ -10433,19 +10433,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L33" t="n">
-        <v>73.99276488738508</v>
+        <v>42.27423123832554</v>
       </c>
       <c r="M33" t="n">
-        <v>57.75069317402355</v>
+        <v>20.73666047215161</v>
       </c>
       <c r="N33" t="n">
-        <v>37.99368400879879</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>67.58149565199844</v>
+        <v>32.82469745261386</v>
       </c>
       <c r="P33" t="n">
-        <v>82.80031984638364</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10594,10 +10594,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>116.8735187081365</v>
+        <v>94.50134181136153</v>
       </c>
       <c r="N35" t="n">
-        <v>113.7102003471159</v>
+        <v>89.21461903306823</v>
       </c>
       <c r="O35" t="n">
         <v>99.00804712831379</v>
@@ -10670,19 +10670,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L36" t="n">
-        <v>73.99276488738508</v>
+        <v>42.27423123832554</v>
       </c>
       <c r="M36" t="n">
-        <v>57.75069317402355</v>
+        <v>20.73666047215161</v>
       </c>
       <c r="N36" t="n">
-        <v>37.99368400879879</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>67.58149565199844</v>
+        <v>32.82469745261386</v>
       </c>
       <c r="P36" t="n">
-        <v>82.80031984638366</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10831,10 +10831,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>116.8735187081365</v>
+        <v>94.50134181136153</v>
       </c>
       <c r="N38" t="n">
-        <v>113.7102003471159</v>
+        <v>89.21461903306823</v>
       </c>
       <c r="O38" t="n">
         <v>99.00804712831379</v>
@@ -10907,19 +10907,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>73.99276488738508</v>
+        <v>42.27423123832554</v>
       </c>
       <c r="M39" t="n">
-        <v>57.75069317402355</v>
+        <v>20.73666047215161</v>
       </c>
       <c r="N39" t="n">
-        <v>37.99368400879879</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>67.58149565199844</v>
+        <v>32.82469745261386</v>
       </c>
       <c r="P39" t="n">
-        <v>82.80031984638366</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11068,10 +11068,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>116.8735187081365</v>
+        <v>94.50134181136153</v>
       </c>
       <c r="N41" t="n">
-        <v>113.7102003471159</v>
+        <v>89.21461903306823</v>
       </c>
       <c r="O41" t="n">
         <v>99.00804712831379</v>
@@ -11144,19 +11144,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L42" t="n">
-        <v>73.99276488738511</v>
+        <v>42.27423123832554</v>
       </c>
       <c r="M42" t="n">
-        <v>57.75069317402358</v>
+        <v>20.73666047215161</v>
       </c>
       <c r="N42" t="n">
-        <v>37.99368400879879</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>67.58149565199844</v>
+        <v>32.82469745261386</v>
       </c>
       <c r="P42" t="n">
-        <v>82.80031984638366</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11305,10 +11305,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>116.8735187081365</v>
+        <v>94.50134181136153</v>
       </c>
       <c r="N44" t="n">
-        <v>111.9488011414238</v>
+        <v>89.21461903306823</v>
       </c>
       <c r="O44" t="n">
         <v>99.00804712831379</v>
@@ -11381,19 +11381,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L45" t="n">
-        <v>57.07593346819698</v>
+        <v>42.27423123832554</v>
       </c>
       <c r="M45" t="n">
-        <v>38.00954882322068</v>
+        <v>20.73666047215161</v>
       </c>
       <c r="N45" t="n">
-        <v>17.73005030863851</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>49.04422963853119</v>
+        <v>32.82469745261386</v>
       </c>
       <c r="P45" t="n">
-        <v>67.92252959633595</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -23272,49 +23272,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>422.4828842901392</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H11" t="n">
-        <v>352.7559106155991</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I11" t="n">
-        <v>264.9395304164745</v>
+        <v>254.4136275388651</v>
       </c>
       <c r="J11" t="n">
-        <v>126.8306476072186</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K11" t="n">
-        <v>96.74614482954047</v>
+        <v>62.01598937483027</v>
       </c>
       <c r="L11" t="n">
-        <v>61.47033764627415</v>
+        <v>18.38450875428643</v>
       </c>
       <c r="M11" t="n">
-        <v>25.56910949601524</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>50.93671224565091</v>
+        <v>4.934605547775988</v>
       </c>
       <c r="P11" t="n">
-        <v>95.27410653902666</v>
+        <v>56.01237276874357</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3402047289868</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R11" t="n">
-        <v>228.6488042124114</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S11" t="n">
-        <v>242.1563016843589</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T11" t="n">
-        <v>220.6670294055369</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U11" t="n">
-        <v>248.8130185540101</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23351,19 +23351,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>161.176718209428</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H12" t="n">
-        <v>139.3125383858557</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I12" t="n">
-        <v>122.5198839159847</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J12" t="n">
-        <v>96.74021199285306</v>
+        <v>82.938597341113</v>
       </c>
       <c r="K12" t="n">
-        <v>37.15999050502471</v>
+        <v>13.57083277636244</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23381,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.4739936679631</v>
+        <v>55.82666100818672</v>
       </c>
       <c r="R12" t="n">
-        <v>164.4350525164654</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S12" t="n">
-        <v>211.0269662249707</v>
+        <v>208.3135435403173</v>
       </c>
       <c r="T12" t="n">
-        <v>230.7472684222575</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23430,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.3699888987368</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7832981868615</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I13" t="n">
-        <v>171.8136191935084</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J13" t="n">
-        <v>141.8677448475604</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K13" t="n">
-        <v>103.2194467320342</v>
+        <v>88.99056004441434</v>
       </c>
       <c r="L13" t="n">
-        <v>81.17768315713714</v>
+        <v>62.96960703121103</v>
       </c>
       <c r="M13" t="n">
-        <v>78.90436642388586</v>
+        <v>59.70650310975206</v>
       </c>
       <c r="N13" t="n">
-        <v>66.05680788805012</v>
+        <v>47.31542685419205</v>
       </c>
       <c r="O13" t="n">
-        <v>89.89367516071432</v>
+        <v>72.58297639552541</v>
       </c>
       <c r="P13" t="n">
-        <v>106.2502734281359</v>
+        <v>91.43798011889524</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.9939231415902</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R13" t="n">
-        <v>227.150859979262</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S13" t="n">
-        <v>246.0552733207275</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6660521851541</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U13" t="n">
-        <v>291.226976759563</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23509,49 +23509,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>422.4828842901392</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H14" t="n">
-        <v>352.7559106155991</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I14" t="n">
-        <v>264.9395304164745</v>
+        <v>254.4136275388651</v>
       </c>
       <c r="J14" t="n">
-        <v>126.8306476072186</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K14" t="n">
-        <v>96.74614482954047</v>
+        <v>62.01598937483027</v>
       </c>
       <c r="L14" t="n">
-        <v>61.47033764627415</v>
+        <v>18.38450875428643</v>
       </c>
       <c r="M14" t="n">
-        <v>25.56910949601524</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>50.93671224565091</v>
+        <v>4.934605547775988</v>
       </c>
       <c r="P14" t="n">
-        <v>95.27410653902666</v>
+        <v>56.01237276874357</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3402047289868</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R14" t="n">
-        <v>228.6488042124114</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S14" t="n">
-        <v>242.1563016843589</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T14" t="n">
-        <v>220.6670294055369</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U14" t="n">
-        <v>248.8130185540101</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23588,19 +23588,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>161.176718209428</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H15" t="n">
-        <v>139.3125383858557</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I15" t="n">
-        <v>122.5198839159847</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J15" t="n">
-        <v>96.74021199285306</v>
+        <v>82.938597341113</v>
       </c>
       <c r="K15" t="n">
-        <v>37.15999050502471</v>
+        <v>13.57083277636244</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23618,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.4739936679631</v>
+        <v>55.82666100818672</v>
       </c>
       <c r="R15" t="n">
-        <v>164.4350525164654</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S15" t="n">
-        <v>211.0269662249707</v>
+        <v>208.3135435403173</v>
       </c>
       <c r="T15" t="n">
-        <v>230.7472684222575</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23667,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.3699888987368</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H16" t="n">
-        <v>168.7832981868615</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I16" t="n">
-        <v>171.8136191935084</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J16" t="n">
-        <v>141.8677448475604</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K16" t="n">
-        <v>103.2194467320342</v>
+        <v>88.99056004441434</v>
       </c>
       <c r="L16" t="n">
-        <v>81.17768315713714</v>
+        <v>62.96960703121103</v>
       </c>
       <c r="M16" t="n">
-        <v>78.90436642388586</v>
+        <v>59.70650310975206</v>
       </c>
       <c r="N16" t="n">
-        <v>66.05680788805012</v>
+        <v>47.31542685419205</v>
       </c>
       <c r="O16" t="n">
-        <v>89.89367516071432</v>
+        <v>72.58297639552541</v>
       </c>
       <c r="P16" t="n">
-        <v>106.2502734281359</v>
+        <v>91.43798011889524</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.9939231415902</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R16" t="n">
-        <v>227.150859979262</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S16" t="n">
-        <v>246.0552733207275</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T16" t="n">
-        <v>218.6660521851541</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U16" t="n">
-        <v>291.226976759563</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23746,49 +23746,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>422.4828842901392</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H17" t="n">
-        <v>352.7559106155991</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I17" t="n">
-        <v>264.9395304164745</v>
+        <v>254.4136275388651</v>
       </c>
       <c r="J17" t="n">
-        <v>126.8306476072186</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K17" t="n">
-        <v>96.74614482954047</v>
+        <v>62.01598937483027</v>
       </c>
       <c r="L17" t="n">
-        <v>61.47033764627412</v>
+        <v>18.38450875428643</v>
       </c>
       <c r="M17" t="n">
-        <v>25.56910949601522</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>50.93671224565088</v>
+        <v>4.934605547775988</v>
       </c>
       <c r="P17" t="n">
-        <v>95.27410653902663</v>
+        <v>56.01237276874357</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3402047289868</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R17" t="n">
-        <v>228.6488042124114</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S17" t="n">
-        <v>242.1563016843589</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T17" t="n">
-        <v>220.6670294055369</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U17" t="n">
-        <v>248.8130185540101</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23825,19 +23825,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>161.176718209428</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H18" t="n">
-        <v>139.3125383858557</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I18" t="n">
-        <v>122.5198839159847</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J18" t="n">
-        <v>96.74021199285306</v>
+        <v>82.938597341113</v>
       </c>
       <c r="K18" t="n">
-        <v>37.15999050502471</v>
+        <v>13.57083277636244</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.4739936679631</v>
+        <v>55.82666100818672</v>
       </c>
       <c r="R18" t="n">
-        <v>164.4350525164654</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S18" t="n">
-        <v>211.0269662249707</v>
+        <v>208.3135435403173</v>
       </c>
       <c r="T18" t="n">
-        <v>230.7472684222575</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23904,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.3699888987368</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H19" t="n">
-        <v>168.7832981868615</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I19" t="n">
-        <v>171.8136191935084</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J19" t="n">
-        <v>141.8677448475604</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K19" t="n">
-        <v>103.2194467320342</v>
+        <v>88.99056004441434</v>
       </c>
       <c r="L19" t="n">
-        <v>81.17768315713714</v>
+        <v>62.96960703121103</v>
       </c>
       <c r="M19" t="n">
-        <v>78.90436642388586</v>
+        <v>59.70650310975206</v>
       </c>
       <c r="N19" t="n">
-        <v>66.0568078880501</v>
+        <v>47.31542685419205</v>
       </c>
       <c r="O19" t="n">
-        <v>89.89367516071431</v>
+        <v>72.58297639552541</v>
       </c>
       <c r="P19" t="n">
-        <v>106.2502734281359</v>
+        <v>91.43798011889524</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.9939231415902</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R19" t="n">
-        <v>227.150859979262</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S19" t="n">
-        <v>246.0552733207275</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T19" t="n">
-        <v>218.6660521851541</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U19" t="n">
-        <v>291.226976759563</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23983,49 +23983,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>422.4828842901392</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H20" t="n">
-        <v>352.7559106155991</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I20" t="n">
-        <v>264.9395304164745</v>
+        <v>254.4136275388651</v>
       </c>
       <c r="J20" t="n">
-        <v>126.8306476072186</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K20" t="n">
-        <v>96.74614482954047</v>
+        <v>62.01598937483027</v>
       </c>
       <c r="L20" t="n">
-        <v>61.47033764627412</v>
+        <v>18.38450875428643</v>
       </c>
       <c r="M20" t="n">
-        <v>25.56910949601522</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>50.93671224565088</v>
+        <v>4.934605547775988</v>
       </c>
       <c r="P20" t="n">
-        <v>95.27410653902663</v>
+        <v>56.01237276874357</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3402047289868</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R20" t="n">
-        <v>228.6488042124114</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S20" t="n">
-        <v>242.1563016843589</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T20" t="n">
-        <v>220.6670294055369</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U20" t="n">
-        <v>248.8130185540101</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24062,19 +24062,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>161.176718209428</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H21" t="n">
-        <v>139.3125383858557</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I21" t="n">
-        <v>122.5198839159847</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J21" t="n">
-        <v>96.74021199285306</v>
+        <v>82.938597341113</v>
       </c>
       <c r="K21" t="n">
-        <v>37.15999050502471</v>
+        <v>13.57083277636244</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.4739936679631</v>
+        <v>55.82666100818672</v>
       </c>
       <c r="R21" t="n">
-        <v>164.4350525164654</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S21" t="n">
-        <v>211.0269662249707</v>
+        <v>208.3135435403173</v>
       </c>
       <c r="T21" t="n">
-        <v>230.7472684222575</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24141,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.3699888987368</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H22" t="n">
-        <v>168.7832981868615</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I22" t="n">
-        <v>171.8136191935084</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J22" t="n">
-        <v>141.8677448475604</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K22" t="n">
-        <v>103.2194467320342</v>
+        <v>88.99056004441434</v>
       </c>
       <c r="L22" t="n">
-        <v>81.17768315713714</v>
+        <v>62.96960703121103</v>
       </c>
       <c r="M22" t="n">
-        <v>78.90436642388586</v>
+        <v>59.70650310975206</v>
       </c>
       <c r="N22" t="n">
-        <v>66.0568078880501</v>
+        <v>47.31542685419205</v>
       </c>
       <c r="O22" t="n">
-        <v>89.89367516071431</v>
+        <v>72.58297639552541</v>
       </c>
       <c r="P22" t="n">
-        <v>106.2502734281359</v>
+        <v>91.43798011889524</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.9939231415902</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R22" t="n">
-        <v>227.150859979262</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S22" t="n">
-        <v>246.0552733207275</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T22" t="n">
-        <v>218.6660521851541</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U22" t="n">
-        <v>291.226976759563</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24220,49 +24220,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>422.4828842901392</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H23" t="n">
-        <v>352.7559106155991</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I23" t="n">
-        <v>264.9395304164745</v>
+        <v>254.4136275388651</v>
       </c>
       <c r="J23" t="n">
-        <v>126.8306476072186</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K23" t="n">
-        <v>96.74614482954047</v>
+        <v>62.01598937483027</v>
       </c>
       <c r="L23" t="n">
-        <v>61.47033764627412</v>
+        <v>18.38450875428643</v>
       </c>
       <c r="M23" t="n">
-        <v>25.56910949601522</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>50.93671224565088</v>
+        <v>4.934605547775988</v>
       </c>
       <c r="P23" t="n">
-        <v>95.27410653902663</v>
+        <v>56.01237276874357</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3402047289868</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R23" t="n">
-        <v>228.6488042124114</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S23" t="n">
-        <v>242.1563016843589</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T23" t="n">
-        <v>220.6670294055369</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U23" t="n">
-        <v>248.8130185540101</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24299,19 +24299,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>161.176718209428</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H24" t="n">
-        <v>139.3125383858557</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I24" t="n">
-        <v>122.5198839159847</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J24" t="n">
-        <v>96.74021199285306</v>
+        <v>82.938597341113</v>
       </c>
       <c r="K24" t="n">
-        <v>37.15999050502471</v>
+        <v>13.57083277636244</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>74.4739936679631</v>
+        <v>55.82666100818672</v>
       </c>
       <c r="R24" t="n">
-        <v>164.4350525164654</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S24" t="n">
-        <v>211.0269662249707</v>
+        <v>208.3135435403173</v>
       </c>
       <c r="T24" t="n">
-        <v>230.7472684222575</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24378,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.3699888987368</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H25" t="n">
-        <v>168.7832981868615</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I25" t="n">
-        <v>171.8136191935084</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J25" t="n">
-        <v>141.8677448475604</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K25" t="n">
-        <v>103.2194467320342</v>
+        <v>88.99056004441434</v>
       </c>
       <c r="L25" t="n">
-        <v>81.17768315713714</v>
+        <v>62.96960703121103</v>
       </c>
       <c r="M25" t="n">
-        <v>78.90436642388586</v>
+        <v>59.70650310975206</v>
       </c>
       <c r="N25" t="n">
-        <v>66.0568078880501</v>
+        <v>47.31542685419205</v>
       </c>
       <c r="O25" t="n">
-        <v>89.89367516071431</v>
+        <v>72.58297639552541</v>
       </c>
       <c r="P25" t="n">
-        <v>106.2502734281359</v>
+        <v>91.43798011889524</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.9939231415902</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R25" t="n">
-        <v>227.150859979262</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S25" t="n">
-        <v>246.0552733207275</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T25" t="n">
-        <v>218.6660521851541</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U25" t="n">
-        <v>291.226976759563</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24457,49 +24457,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>422.4828842901392</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H26" t="n">
-        <v>352.7559106155991</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I26" t="n">
-        <v>264.9395304164745</v>
+        <v>254.4136275388651</v>
       </c>
       <c r="J26" t="n">
-        <v>126.8306476072186</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K26" t="n">
-        <v>96.74614482954047</v>
+        <v>62.01598937483027</v>
       </c>
       <c r="L26" t="n">
-        <v>61.47033764627412</v>
+        <v>18.38450875428643</v>
       </c>
       <c r="M26" t="n">
-        <v>25.56910949601522</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>50.93671224565088</v>
+        <v>4.934605547775988</v>
       </c>
       <c r="P26" t="n">
-        <v>95.27410653902663</v>
+        <v>56.01237276874357</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3402047289868</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R26" t="n">
-        <v>228.6488042124114</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S26" t="n">
-        <v>242.1563016843589</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T26" t="n">
-        <v>220.6670294055369</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U26" t="n">
-        <v>248.8130185540101</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24536,19 +24536,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>161.176718209428</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H27" t="n">
-        <v>139.3125383858557</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I27" t="n">
-        <v>122.5198839159847</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J27" t="n">
-        <v>96.74021199285306</v>
+        <v>82.938597341113</v>
       </c>
       <c r="K27" t="n">
-        <v>37.15999050502471</v>
+        <v>13.57083277636244</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24566,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>74.4739936679631</v>
+        <v>55.82666100818672</v>
       </c>
       <c r="R27" t="n">
-        <v>164.4350525164654</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S27" t="n">
-        <v>211.0269662249707</v>
+        <v>208.3135435403173</v>
       </c>
       <c r="T27" t="n">
-        <v>230.7472684222575</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24615,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.3699888987368</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H28" t="n">
-        <v>168.7832981868615</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I28" t="n">
-        <v>171.8136191935084</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J28" t="n">
-        <v>141.8677448475604</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K28" t="n">
-        <v>103.2194467320342</v>
+        <v>88.99056004441434</v>
       </c>
       <c r="L28" t="n">
-        <v>81.17768315713714</v>
+        <v>62.96960703121103</v>
       </c>
       <c r="M28" t="n">
-        <v>78.90436642388586</v>
+        <v>59.70650310975206</v>
       </c>
       <c r="N28" t="n">
-        <v>66.0568078880501</v>
+        <v>47.31542685419205</v>
       </c>
       <c r="O28" t="n">
-        <v>89.89367516071431</v>
+        <v>72.58297639552541</v>
       </c>
       <c r="P28" t="n">
-        <v>106.2502734281359</v>
+        <v>91.43798011889524</v>
       </c>
       <c r="Q28" t="n">
-        <v>162.9939231415902</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R28" t="n">
-        <v>227.150859979262</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S28" t="n">
-        <v>246.0552733207275</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T28" t="n">
-        <v>218.6660521851541</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U28" t="n">
-        <v>291.226976759563</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24694,49 +24694,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>422.4828842901392</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H29" t="n">
-        <v>352.7559106155991</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I29" t="n">
-        <v>264.9395304164745</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J29" t="n">
-        <v>126.8306476072186</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K29" t="n">
-        <v>96.74614482954047</v>
+        <v>62.01598937483024</v>
       </c>
       <c r="L29" t="n">
-        <v>61.47033764627412</v>
+        <v>18.38450875428637</v>
       </c>
       <c r="M29" t="n">
-        <v>25.56910949601522</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>50.93671224565088</v>
+        <v>4.934605547775959</v>
       </c>
       <c r="P29" t="n">
-        <v>95.27410653902663</v>
+        <v>56.01237276874352</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3402047289868</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R29" t="n">
-        <v>228.6488042124114</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S29" t="n">
-        <v>242.1563016843589</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T29" t="n">
-        <v>220.6670294055369</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U29" t="n">
-        <v>248.8130185540101</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24773,19 +24773,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>161.176718209428</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H30" t="n">
-        <v>139.3125383858557</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I30" t="n">
-        <v>122.5198839159847</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J30" t="n">
-        <v>96.74021199285306</v>
+        <v>82.93859734111298</v>
       </c>
       <c r="K30" t="n">
-        <v>37.15999050502471</v>
+        <v>13.57083277636241</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24803,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>74.4739936679631</v>
+        <v>55.82666100818672</v>
       </c>
       <c r="R30" t="n">
-        <v>164.4350525164654</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S30" t="n">
-        <v>211.0269662249707</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T30" t="n">
-        <v>230.7472684222575</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24852,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.3699888987368</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H31" t="n">
-        <v>168.7832981868615</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I31" t="n">
-        <v>171.8136191935084</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J31" t="n">
-        <v>141.8677448475604</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K31" t="n">
-        <v>103.2194467320342</v>
+        <v>88.99056004441432</v>
       </c>
       <c r="L31" t="n">
-        <v>81.17768315713714</v>
+        <v>62.96960703121101</v>
       </c>
       <c r="M31" t="n">
-        <v>78.90436642388586</v>
+        <v>59.70650310975206</v>
       </c>
       <c r="N31" t="n">
-        <v>66.0568078880501</v>
+        <v>47.31542685419204</v>
       </c>
       <c r="O31" t="n">
-        <v>89.89367516071431</v>
+        <v>72.58297639552539</v>
       </c>
       <c r="P31" t="n">
-        <v>106.2502734281359</v>
+        <v>91.43798011889523</v>
       </c>
       <c r="Q31" t="n">
-        <v>162.9939231415902</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R31" t="n">
-        <v>227.150859979262</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S31" t="n">
-        <v>246.0552733207275</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T31" t="n">
-        <v>218.6660521851541</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U31" t="n">
-        <v>291.226976759563</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24931,49 +24931,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>422.4828842901392</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H32" t="n">
-        <v>352.7559106155991</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I32" t="n">
-        <v>264.9395304164745</v>
+        <v>254.4136275388651</v>
       </c>
       <c r="J32" t="n">
-        <v>126.8306476072186</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K32" t="n">
-        <v>96.74614482954047</v>
+        <v>62.01598937483027</v>
       </c>
       <c r="L32" t="n">
-        <v>61.47033764627412</v>
+        <v>18.38450875428643</v>
       </c>
       <c r="M32" t="n">
-        <v>25.56910949601522</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>50.93671224565088</v>
+        <v>4.934605547775988</v>
       </c>
       <c r="P32" t="n">
-        <v>95.27410653902663</v>
+        <v>56.01237276874357</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3402047289868</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R32" t="n">
-        <v>228.6488042124114</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S32" t="n">
-        <v>242.1563016843589</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T32" t="n">
-        <v>220.6670294055369</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U32" t="n">
-        <v>248.8130185540101</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25010,19 +25010,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>161.176718209428</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H33" t="n">
-        <v>139.3125383858557</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I33" t="n">
-        <v>122.5198839159847</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J33" t="n">
-        <v>96.74021199285306</v>
+        <v>82.938597341113</v>
       </c>
       <c r="K33" t="n">
-        <v>37.15999050502471</v>
+        <v>13.57083277636244</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25040,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.4739936679631</v>
+        <v>55.82666100818672</v>
       </c>
       <c r="R33" t="n">
-        <v>164.4350525164654</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S33" t="n">
-        <v>211.0269662249707</v>
+        <v>208.3135435403173</v>
       </c>
       <c r="T33" t="n">
-        <v>230.7472684222575</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25089,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.3699888987368</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H34" t="n">
-        <v>168.7832981868615</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I34" t="n">
-        <v>171.8136191935084</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J34" t="n">
-        <v>141.8677448475604</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K34" t="n">
-        <v>103.2194467320342</v>
+        <v>88.99056004441434</v>
       </c>
       <c r="L34" t="n">
-        <v>81.17768315713714</v>
+        <v>62.96960703121103</v>
       </c>
       <c r="M34" t="n">
-        <v>78.90436642388586</v>
+        <v>59.70650310975206</v>
       </c>
       <c r="N34" t="n">
-        <v>66.0568078880501</v>
+        <v>47.31542685419205</v>
       </c>
       <c r="O34" t="n">
-        <v>89.89367516071431</v>
+        <v>72.58297639552541</v>
       </c>
       <c r="P34" t="n">
-        <v>106.2502734281359</v>
+        <v>91.43798011889524</v>
       </c>
       <c r="Q34" t="n">
-        <v>162.9939231415902</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R34" t="n">
-        <v>227.150859979262</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S34" t="n">
-        <v>246.0552733207275</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T34" t="n">
-        <v>218.6660521851541</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U34" t="n">
-        <v>291.226976759563</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25168,49 +25168,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>422.4828842901392</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H35" t="n">
-        <v>352.7559106155991</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I35" t="n">
-        <v>264.9395304164745</v>
+        <v>254.4136275388651</v>
       </c>
       <c r="J35" t="n">
-        <v>126.8306476072186</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K35" t="n">
-        <v>96.74614482954047</v>
+        <v>62.01598937483027</v>
       </c>
       <c r="L35" t="n">
-        <v>61.47033764627412</v>
+        <v>18.38450875428643</v>
       </c>
       <c r="M35" t="n">
-        <v>25.56910949601522</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>50.93671224565088</v>
+        <v>4.934605547775988</v>
       </c>
       <c r="P35" t="n">
-        <v>95.27410653902663</v>
+        <v>56.01237276874357</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3402047289868</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R35" t="n">
-        <v>228.6488042124114</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S35" t="n">
-        <v>242.1563016843589</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T35" t="n">
-        <v>220.6670294055369</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U35" t="n">
-        <v>248.8130185540101</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25247,19 +25247,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>161.176718209428</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H36" t="n">
-        <v>139.3125383858557</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I36" t="n">
-        <v>122.5198839159847</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J36" t="n">
-        <v>96.74021199285306</v>
+        <v>82.938597341113</v>
       </c>
       <c r="K36" t="n">
-        <v>37.15999050502471</v>
+        <v>13.57083277636244</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25277,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>74.4739936679631</v>
+        <v>55.82666100818672</v>
       </c>
       <c r="R36" t="n">
-        <v>164.4350525164654</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S36" t="n">
-        <v>211.0269662249707</v>
+        <v>208.3135435403173</v>
       </c>
       <c r="T36" t="n">
-        <v>230.7472684222575</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25326,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.3699888987368</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H37" t="n">
-        <v>168.7832981868615</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I37" t="n">
-        <v>171.8136191935084</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J37" t="n">
-        <v>141.8677448475604</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K37" t="n">
-        <v>103.2194467320342</v>
+        <v>88.99056004441434</v>
       </c>
       <c r="L37" t="n">
-        <v>81.17768315713714</v>
+        <v>62.96960703121103</v>
       </c>
       <c r="M37" t="n">
-        <v>78.90436642388586</v>
+        <v>59.70650310975206</v>
       </c>
       <c r="N37" t="n">
-        <v>66.0568078880501</v>
+        <v>47.31542685419205</v>
       </c>
       <c r="O37" t="n">
-        <v>89.89367516071431</v>
+        <v>72.58297639552541</v>
       </c>
       <c r="P37" t="n">
-        <v>106.2502734281359</v>
+        <v>91.43798011889524</v>
       </c>
       <c r="Q37" t="n">
-        <v>162.9939231415902</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R37" t="n">
-        <v>227.150859979262</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S37" t="n">
-        <v>246.0552733207275</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T37" t="n">
-        <v>218.6660521851541</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U37" t="n">
-        <v>291.226976759563</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25405,49 +25405,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>422.4828842901392</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H38" t="n">
-        <v>352.7559106155991</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I38" t="n">
-        <v>264.9395304164745</v>
+        <v>254.4136275388651</v>
       </c>
       <c r="J38" t="n">
-        <v>126.8306476072186</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K38" t="n">
-        <v>96.74614482954047</v>
+        <v>62.01598937483027</v>
       </c>
       <c r="L38" t="n">
-        <v>61.47033764627412</v>
+        <v>18.38450875428643</v>
       </c>
       <c r="M38" t="n">
-        <v>25.56910949601522</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>50.93671224565088</v>
+        <v>4.934605547775988</v>
       </c>
       <c r="P38" t="n">
-        <v>95.27410653902663</v>
+        <v>56.01237276874357</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3402047289868</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R38" t="n">
-        <v>228.6488042124114</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S38" t="n">
-        <v>242.1563016843589</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T38" t="n">
-        <v>220.6670294055369</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U38" t="n">
-        <v>248.8130185540101</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25484,19 +25484,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>161.176718209428</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H39" t="n">
-        <v>139.3125383858557</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I39" t="n">
-        <v>122.5198839159847</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J39" t="n">
-        <v>96.74021199285306</v>
+        <v>82.938597341113</v>
       </c>
       <c r="K39" t="n">
-        <v>37.15999050502471</v>
+        <v>13.57083277636244</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25514,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>74.4739936679631</v>
+        <v>55.82666100818672</v>
       </c>
       <c r="R39" t="n">
-        <v>164.4350525164654</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S39" t="n">
-        <v>211.0269662249707</v>
+        <v>208.3135435403173</v>
       </c>
       <c r="T39" t="n">
-        <v>230.7472684222575</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25563,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.3699888987368</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H40" t="n">
-        <v>168.7832981868615</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I40" t="n">
-        <v>171.8136191935084</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J40" t="n">
-        <v>141.8677448475604</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K40" t="n">
-        <v>103.2194467320342</v>
+        <v>88.99056004441434</v>
       </c>
       <c r="L40" t="n">
-        <v>81.17768315713714</v>
+        <v>62.96960703121103</v>
       </c>
       <c r="M40" t="n">
-        <v>78.90436642388586</v>
+        <v>59.70650310975206</v>
       </c>
       <c r="N40" t="n">
-        <v>66.0568078880501</v>
+        <v>47.31542685419205</v>
       </c>
       <c r="O40" t="n">
-        <v>89.89367516071431</v>
+        <v>72.58297639552541</v>
       </c>
       <c r="P40" t="n">
-        <v>106.2502734281359</v>
+        <v>91.43798011889524</v>
       </c>
       <c r="Q40" t="n">
-        <v>162.9939231415902</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R40" t="n">
-        <v>227.150859979262</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S40" t="n">
-        <v>246.0552733207275</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T40" t="n">
-        <v>218.6660521851541</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U40" t="n">
-        <v>291.226976759563</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25642,49 +25642,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>422.4828842901392</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H41" t="n">
-        <v>352.7559106155991</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I41" t="n">
-        <v>264.9395304164745</v>
+        <v>254.4136275388651</v>
       </c>
       <c r="J41" t="n">
-        <v>126.8306476072186</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K41" t="n">
-        <v>96.74614482954047</v>
+        <v>62.01598937483027</v>
       </c>
       <c r="L41" t="n">
-        <v>61.47033764627415</v>
+        <v>18.38450875428643</v>
       </c>
       <c r="M41" t="n">
-        <v>25.56910949601524</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>50.93671224565091</v>
+        <v>4.934605547775988</v>
       </c>
       <c r="P41" t="n">
-        <v>95.27410653902666</v>
+        <v>56.01237276874357</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3402047289868</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R41" t="n">
-        <v>228.6488042124114</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S41" t="n">
-        <v>242.1563016843589</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T41" t="n">
-        <v>220.6670294055369</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U41" t="n">
-        <v>248.8130185540101</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25721,19 +25721,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>161.176718209428</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H42" t="n">
-        <v>139.3125383858557</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I42" t="n">
-        <v>122.5198839159847</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J42" t="n">
-        <v>96.74021199285306</v>
+        <v>82.938597341113</v>
       </c>
       <c r="K42" t="n">
-        <v>37.15999050502471</v>
+        <v>13.57083277636244</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>74.4739936679631</v>
+        <v>55.82666100818672</v>
       </c>
       <c r="R42" t="n">
-        <v>164.4350525164654</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S42" t="n">
-        <v>211.0269662249707</v>
+        <v>208.3135435403173</v>
       </c>
       <c r="T42" t="n">
-        <v>230.7472684222575</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25800,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.3699888987368</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H43" t="n">
-        <v>168.7832981868615</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I43" t="n">
-        <v>171.8136191935084</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J43" t="n">
-        <v>141.8677448475604</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K43" t="n">
-        <v>103.2194467320342</v>
+        <v>88.99056004441434</v>
       </c>
       <c r="L43" t="n">
-        <v>81.17768315713714</v>
+        <v>62.96960703121103</v>
       </c>
       <c r="M43" t="n">
-        <v>78.90436642388586</v>
+        <v>59.70650310975206</v>
       </c>
       <c r="N43" t="n">
-        <v>66.05680788805012</v>
+        <v>47.31542685419205</v>
       </c>
       <c r="O43" t="n">
-        <v>89.89367516071432</v>
+        <v>72.58297639552541</v>
       </c>
       <c r="P43" t="n">
-        <v>106.2502734281359</v>
+        <v>91.43798011889524</v>
       </c>
       <c r="Q43" t="n">
-        <v>162.9939231415902</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R43" t="n">
-        <v>227.150859979262</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S43" t="n">
-        <v>246.0552733207275</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T43" t="n">
-        <v>218.6660521851541</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U43" t="n">
-        <v>291.226976759563</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25879,22 +25879,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>422.3372670711946</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H44" t="n">
-        <v>351.2646082720821</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I44" t="n">
-        <v>259.3256225831108</v>
+        <v>254.4136275388651</v>
       </c>
       <c r="J44" t="n">
-        <v>114.4715681708149</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K44" t="n">
-        <v>78.22308851520961</v>
+        <v>62.01598937483027</v>
       </c>
       <c r="L44" t="n">
-        <v>38.49084836766588</v>
+        <v>18.38450875428643</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25903,25 +25903,25 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>26.40184904719004</v>
+        <v>4.934605547775988</v>
       </c>
       <c r="P44" t="n">
-        <v>74.33416843326191</v>
+        <v>56.01237276874357</v>
       </c>
       <c r="Q44" t="n">
-        <v>134.6151832766775</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R44" t="n">
-        <v>219.5016765828794</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S44" t="n">
-        <v>238.8380493076577</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T44" t="n">
-        <v>220.0295900296067</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U44" t="n">
-        <v>248.8013691764946</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25958,19 +25958,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H45" t="n">
-        <v>138.5600717100643</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I45" t="n">
-        <v>119.8373846403433</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J45" t="n">
-        <v>89.37922894870135</v>
+        <v>82.938597341113</v>
       </c>
       <c r="K45" t="n">
-        <v>24.57889804244016</v>
+        <v>13.57083277636244</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>64.52858488856606</v>
+        <v>55.82666100818672</v>
       </c>
       <c r="R45" t="n">
-        <v>159.5976691093343</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S45" t="n">
-        <v>209.5797834947361</v>
+        <v>208.3135435403173</v>
       </c>
       <c r="T45" t="n">
-        <v>230.4332280611984</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26037,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.30467002737</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H46" t="n">
-        <v>168.2025540396188</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I46" t="n">
-        <v>169.8493025891331</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J46" t="n">
-        <v>137.2497006419296</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K46" t="n">
-        <v>95.63058149505842</v>
+        <v>88.99056004441434</v>
       </c>
       <c r="L46" t="n">
-        <v>71.46654840866277</v>
+        <v>62.96960703121103</v>
       </c>
       <c r="M46" t="n">
-        <v>68.66533643318368</v>
+        <v>59.70650310975206</v>
       </c>
       <c r="N46" t="n">
-        <v>56.06123914516952</v>
+        <v>47.31542685419205</v>
       </c>
       <c r="O46" t="n">
-        <v>80.66114959698193</v>
+        <v>72.58297639552541</v>
       </c>
       <c r="P46" t="n">
-        <v>98.35025284028562</v>
+        <v>91.43798011889524</v>
       </c>
       <c r="Q46" t="n">
-        <v>157.5243583765053</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R46" t="n">
-        <v>224.2138859994434</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S46" t="n">
-        <v>244.9169435351811</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T46" t="n">
-        <v>218.3869624620415</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2234139120339</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>402652.7552123222</v>
+        <v>448692.6650745946</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402652.7552123222</v>
+        <v>448692.6650745946</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>402652.7552123222</v>
+        <v>448692.6650745946</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>402652.7552123222</v>
+        <v>448692.6650745946</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>402652.7552123222</v>
+        <v>448692.6650745946</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>402652.7552123222</v>
+        <v>448692.6650745946</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>402652.7552123222</v>
+        <v>448692.6650745946</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>402652.7552123222</v>
+        <v>448692.6650745946</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>402652.7552123222</v>
+        <v>448692.6650745946</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>402652.7552123222</v>
+        <v>448692.6650745946</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>402652.7552123222</v>
+        <v>448692.6650745946</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>430305.7233078531</v>
+        <v>448692.6650745946</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>18687.7839295806</v>
       </c>
       <c r="E2" t="n">
-        <v>50589.82414424398</v>
+        <v>56706.46282890287</v>
       </c>
       <c r="F2" t="n">
-        <v>50589.82414424398</v>
+        <v>56706.46282890287</v>
       </c>
       <c r="G2" t="n">
-        <v>50589.82414424398</v>
+        <v>56706.46282890287</v>
       </c>
       <c r="H2" t="n">
-        <v>50589.82414424398</v>
+        <v>56706.46282890287</v>
       </c>
       <c r="I2" t="n">
-        <v>50589.82414424398</v>
+        <v>56706.46282890287</v>
       </c>
       <c r="J2" t="n">
-        <v>50589.82414424398</v>
+        <v>56706.46282890287</v>
       </c>
       <c r="K2" t="n">
-        <v>50589.82414424398</v>
+        <v>56706.46282890286</v>
       </c>
       <c r="L2" t="n">
-        <v>50589.82414424398</v>
+        <v>56706.46282890286</v>
       </c>
       <c r="M2" t="n">
-        <v>50589.82414424398</v>
+        <v>56706.46282890286</v>
       </c>
       <c r="N2" t="n">
-        <v>50589.82414424398</v>
+        <v>56706.46282890286</v>
       </c>
       <c r="O2" t="n">
-        <v>50589.82414424398</v>
+        <v>56706.46282890286</v>
       </c>
       <c r="P2" t="n">
-        <v>54221.98909211703</v>
+        <v>56706.46282890286</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>221297.4763989404</v>
+        <v>275861.118444412</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>24108.68237143111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>11679.86495598788</v>
       </c>
       <c r="E4" t="n">
-        <v>10581.61809443115</v>
+        <v>9217.578150597306</v>
       </c>
       <c r="F4" t="n">
-        <v>10581.61809443115</v>
+        <v>9217.578150597306</v>
       </c>
       <c r="G4" t="n">
-        <v>10581.61809443115</v>
+        <v>9217.578150597306</v>
       </c>
       <c r="H4" t="n">
-        <v>10581.61809443115</v>
+        <v>9217.578150597306</v>
       </c>
       <c r="I4" t="n">
-        <v>10581.61809443115</v>
+        <v>9217.578150597306</v>
       </c>
       <c r="J4" t="n">
-        <v>10581.61809443115</v>
+        <v>9217.578150597306</v>
       </c>
       <c r="K4" t="n">
-        <v>10581.61809443115</v>
+        <v>9217.578150597305</v>
       </c>
       <c r="L4" t="n">
-        <v>10581.61809443115</v>
+        <v>9217.578150597306</v>
       </c>
       <c r="M4" t="n">
-        <v>10581.61809443115</v>
+        <v>9217.578150597306</v>
       </c>
       <c r="N4" t="n">
-        <v>10581.61809443115</v>
+        <v>9217.578150597306</v>
       </c>
       <c r="O4" t="n">
-        <v>10581.61809443115</v>
+        <v>9217.578150597306</v>
       </c>
       <c r="P4" t="n">
-        <v>10085.30784394609</v>
+        <v>9217.578150597306</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>6004.813257477132</v>
+        <v>7485.37456555201</v>
       </c>
       <c r="F5" t="n">
-        <v>6004.813257477132</v>
+        <v>7485.37456555201</v>
       </c>
       <c r="G5" t="n">
-        <v>6004.813257477132</v>
+        <v>7485.37456555201</v>
       </c>
       <c r="H5" t="n">
-        <v>6004.813257477132</v>
+        <v>7485.37456555201</v>
       </c>
       <c r="I5" t="n">
-        <v>6004.813257477132</v>
+        <v>7485.37456555201</v>
       </c>
       <c r="J5" t="n">
-        <v>6004.813257477132</v>
+        <v>7485.37456555201</v>
       </c>
       <c r="K5" t="n">
-        <v>6004.813257477132</v>
+        <v>7485.374565552011</v>
       </c>
       <c r="L5" t="n">
-        <v>6004.813257477132</v>
+        <v>7485.37456555201</v>
       </c>
       <c r="M5" t="n">
-        <v>6004.813257477132</v>
+        <v>7485.37456555201</v>
       </c>
       <c r="N5" t="n">
-        <v>6004.813257477132</v>
+        <v>7485.37456555201</v>
       </c>
       <c r="O5" t="n">
-        <v>6004.813257477132</v>
+        <v>7485.37456555201</v>
       </c>
       <c r="P5" t="n">
-        <v>6794.459031509247</v>
+        <v>7485.37456555201</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26619.68102640727</v>
+        <v>-48103.84435963971</v>
       </c>
       <c r="C6" t="n">
-        <v>-26619.68102640727</v>
+        <v>-48103.8443596397</v>
       </c>
       <c r="D6" t="n">
-        <v>-26619.68102640727</v>
+        <v>-48103.84435963971</v>
       </c>
       <c r="E6" t="n">
-        <v>-187294.0836066047</v>
+        <v>-252589.4368024756</v>
       </c>
       <c r="F6" t="n">
-        <v>34003.3927923357</v>
+        <v>23271.6816419364</v>
       </c>
       <c r="G6" t="n">
-        <v>34003.3927923357</v>
+        <v>23271.6816419364</v>
       </c>
       <c r="H6" t="n">
-        <v>34003.3927923357</v>
+        <v>23271.6816419364</v>
       </c>
       <c r="I6" t="n">
-        <v>34003.3927923357</v>
+        <v>23271.6816419364</v>
       </c>
       <c r="J6" t="n">
-        <v>34003.3927923357</v>
+        <v>23271.6816419364</v>
       </c>
       <c r="K6" t="n">
-        <v>34003.3927923357</v>
+        <v>23271.68164193639</v>
       </c>
       <c r="L6" t="n">
-        <v>34003.3927923357</v>
+        <v>23271.68164193639</v>
       </c>
       <c r="M6" t="n">
-        <v>34003.3927923357</v>
+        <v>23271.68164193639</v>
       </c>
       <c r="N6" t="n">
-        <v>34003.3927923357</v>
+        <v>23271.68164193639</v>
       </c>
       <c r="O6" t="n">
-        <v>34003.3927923357</v>
+        <v>23271.68164193639</v>
       </c>
       <c r="P6" t="n">
-        <v>13233.53984523059</v>
+        <v>23271.68164193639</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275.4501494255565</v>
+        <v>343.3658057592665</v>
       </c>
       <c r="F3" t="n">
-        <v>275.4501494255565</v>
+        <v>343.3658057592665</v>
       </c>
       <c r="G3" t="n">
-        <v>275.4501494255565</v>
+        <v>343.3658057592665</v>
       </c>
       <c r="H3" t="n">
-        <v>275.4501494255565</v>
+        <v>343.3658057592665</v>
       </c>
       <c r="I3" t="n">
-        <v>275.4501494255565</v>
+        <v>343.3658057592665</v>
       </c>
       <c r="J3" t="n">
-        <v>275.4501494255565</v>
+        <v>343.3658057592665</v>
       </c>
       <c r="K3" t="n">
-        <v>275.4501494255565</v>
+        <v>343.3658057592666</v>
       </c>
       <c r="L3" t="n">
-        <v>275.4501494255565</v>
+        <v>343.3658057592665</v>
       </c>
       <c r="M3" t="n">
-        <v>275.4501494255565</v>
+        <v>343.3658057592665</v>
       </c>
       <c r="N3" t="n">
-        <v>275.4501494255565</v>
+        <v>343.3658057592665</v>
       </c>
       <c r="O3" t="n">
-        <v>275.4501494255565</v>
+        <v>343.3658057592665</v>
       </c>
       <c r="P3" t="n">
-        <v>311.6724326380389</v>
+        <v>343.3658057592665</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275.4501494255565</v>
+        <v>343.3658057592665</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>36.2222832124823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.107337284122839</v>
+        <v>1.380365048278457</v>
       </c>
       <c r="H11" t="n">
-        <v>11.34051796102303</v>
+        <v>14.13666355068175</v>
       </c>
       <c r="I11" t="n">
-        <v>42.6906206461458</v>
+        <v>53.21652352375527</v>
       </c>
       <c r="J11" t="n">
-        <v>93.98386781832092</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K11" t="n">
-        <v>140.8574550552407</v>
+        <v>175.5876105099509</v>
       </c>
       <c r="L11" t="n">
-        <v>174.7461284642151</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M11" t="n">
-        <v>194.4387378907346</v>
+        <v>242.3800242835248</v>
       </c>
       <c r="N11" t="n">
-        <v>197.5849599492487</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O11" t="n">
-        <v>186.5738748302522</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P11" t="n">
-        <v>159.2364856284696</v>
+        <v>198.4982193987526</v>
       </c>
       <c r="Q11" t="n">
-        <v>119.5799691408203</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R11" t="n">
-        <v>69.55877567378137</v>
+        <v>86.70935596392171</v>
       </c>
       <c r="S11" t="n">
-        <v>25.23344836194923</v>
+        <v>31.45506853764537</v>
       </c>
       <c r="T11" t="n">
-        <v>4.847368961247732</v>
+        <v>6.042547998838949</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08858698272982712</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5924776798964799</v>
+        <v>0.7385604123878563</v>
       </c>
       <c r="H12" t="n">
-        <v>5.722087066368637</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I12" t="n">
-        <v>20.39890257538319</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J12" t="n">
-        <v>55.97614781864069</v>
+        <v>69.77776247038076</v>
       </c>
       <c r="K12" t="n">
-        <v>95.67215237170485</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L12" t="n">
-        <v>128.6430155406809</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M12" t="n">
-        <v>150.1203314369282</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N12" t="n">
-        <v>154.0935699130762</v>
+        <v>192.0872539218749</v>
       </c>
       <c r="O12" t="n">
-        <v>140.9655118480015</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P12" t="n">
-        <v>113.1372509970743</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q12" t="n">
-        <v>75.62925612152262</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R12" t="n">
-        <v>36.78558787988848</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S12" t="n">
-        <v>11.00501304544558</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T12" t="n">
-        <v>2.388100823793267</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.04858950081499056</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4967133842100198</v>
+        <v>0.6191842398937591</v>
       </c>
       <c r="H13" t="n">
-        <v>4.416233543249088</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I13" t="n">
-        <v>14.93752613606133</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J13" t="n">
-        <v>35.1176362636484</v>
+        <v>43.77632576048877</v>
       </c>
       <c r="K13" t="n">
-        <v>57.70906409276411</v>
+        <v>71.937950780384</v>
       </c>
       <c r="L13" t="n">
-        <v>73.8477335033697</v>
+        <v>92.05580962929581</v>
       </c>
       <c r="M13" t="n">
-        <v>77.86208076303065</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N13" t="n">
-        <v>76.01069451279335</v>
+        <v>94.75207554665141</v>
       </c>
       <c r="O13" t="n">
-        <v>70.20817906997628</v>
+        <v>87.5188778351652</v>
       </c>
       <c r="P13" t="n">
-        <v>60.07522603209183</v>
+        <v>74.88751934133245</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.59297256325902</v>
+        <v>51.84823666964924</v>
       </c>
       <c r="R13" t="n">
-        <v>22.33403998457052</v>
+        <v>27.84077500467756</v>
       </c>
       <c r="S13" t="n">
-        <v>8.656359613914615</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T13" t="n">
-        <v>2.122320823442811</v>
+        <v>2.64560538863697</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.107337284122839</v>
+        <v>1.380365048278457</v>
       </c>
       <c r="H14" t="n">
-        <v>11.34051796102303</v>
+        <v>14.13666355068175</v>
       </c>
       <c r="I14" t="n">
-        <v>42.6906206461458</v>
+        <v>53.21652352375527</v>
       </c>
       <c r="J14" t="n">
-        <v>93.98386781832092</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K14" t="n">
-        <v>140.8574550552407</v>
+        <v>175.5876105099509</v>
       </c>
       <c r="L14" t="n">
-        <v>174.7461284642151</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M14" t="n">
-        <v>194.4387378907346</v>
+        <v>242.3800242835248</v>
       </c>
       <c r="N14" t="n">
-        <v>197.5849599492487</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O14" t="n">
-        <v>186.5738748302522</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P14" t="n">
-        <v>159.2364856284696</v>
+        <v>198.4982193987526</v>
       </c>
       <c r="Q14" t="n">
-        <v>119.5799691408203</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R14" t="n">
-        <v>69.55877567378137</v>
+        <v>86.70935596392171</v>
       </c>
       <c r="S14" t="n">
-        <v>25.23344836194923</v>
+        <v>31.45506853764537</v>
       </c>
       <c r="T14" t="n">
-        <v>4.847368961247732</v>
+        <v>6.042547998838949</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08858698272982712</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5924776798964799</v>
+        <v>0.7385604123878563</v>
       </c>
       <c r="H15" t="n">
-        <v>5.722087066368637</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I15" t="n">
-        <v>20.39890257538319</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J15" t="n">
-        <v>55.97614781864069</v>
+        <v>69.77776247038076</v>
       </c>
       <c r="K15" t="n">
-        <v>95.67215237170485</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L15" t="n">
-        <v>128.6430155406809</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M15" t="n">
-        <v>150.1203314369282</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N15" t="n">
-        <v>154.0935699130762</v>
+        <v>192.0872539218749</v>
       </c>
       <c r="O15" t="n">
-        <v>140.9655118480015</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P15" t="n">
-        <v>113.1372509970743</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q15" t="n">
-        <v>75.62925612152262</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R15" t="n">
-        <v>36.78558787988848</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S15" t="n">
-        <v>11.00501304544558</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T15" t="n">
-        <v>2.388100823793267</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.04858950081499056</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4967133842100198</v>
+        <v>0.6191842398937591</v>
       </c>
       <c r="H16" t="n">
-        <v>4.416233543249088</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I16" t="n">
-        <v>14.93752613606133</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J16" t="n">
-        <v>35.1176362636484</v>
+        <v>43.77632576048877</v>
       </c>
       <c r="K16" t="n">
-        <v>57.70906409276411</v>
+        <v>71.937950780384</v>
       </c>
       <c r="L16" t="n">
-        <v>73.8477335033697</v>
+        <v>92.05580962929581</v>
       </c>
       <c r="M16" t="n">
-        <v>77.86208076303065</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N16" t="n">
-        <v>76.01069451279335</v>
+        <v>94.75207554665141</v>
       </c>
       <c r="O16" t="n">
-        <v>70.20817906997628</v>
+        <v>87.5188778351652</v>
       </c>
       <c r="P16" t="n">
-        <v>60.07522603209183</v>
+        <v>74.88751934133245</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.59297256325902</v>
+        <v>51.84823666964924</v>
       </c>
       <c r="R16" t="n">
-        <v>22.33403998457052</v>
+        <v>27.84077500467756</v>
       </c>
       <c r="S16" t="n">
-        <v>8.656359613914615</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T16" t="n">
-        <v>2.122320823442811</v>
+        <v>2.64560538863697</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.107337284122839</v>
+        <v>1.380365048278457</v>
       </c>
       <c r="H17" t="n">
-        <v>11.34051796102303</v>
+        <v>14.13666355068175</v>
       </c>
       <c r="I17" t="n">
-        <v>42.69062064614581</v>
+        <v>53.21652352375527</v>
       </c>
       <c r="J17" t="n">
-        <v>93.98386781832093</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K17" t="n">
-        <v>140.8574550552407</v>
+        <v>175.5876105099509</v>
       </c>
       <c r="L17" t="n">
-        <v>174.7461284642151</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M17" t="n">
-        <v>194.4387378907347</v>
+        <v>242.3800242835248</v>
       </c>
       <c r="N17" t="n">
-        <v>197.5849599492487</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O17" t="n">
-        <v>186.5738748302522</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P17" t="n">
-        <v>159.2364856284696</v>
+        <v>198.4982193987526</v>
       </c>
       <c r="Q17" t="n">
-        <v>119.5799691408204</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R17" t="n">
-        <v>69.55877567378137</v>
+        <v>86.70935596392171</v>
       </c>
       <c r="S17" t="n">
-        <v>25.23344836194923</v>
+        <v>31.45506853764537</v>
       </c>
       <c r="T17" t="n">
-        <v>4.847368961247732</v>
+        <v>6.042547998838949</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.59247767989648</v>
+        <v>0.7385604123878563</v>
       </c>
       <c r="H18" t="n">
-        <v>5.722087066368637</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I18" t="n">
-        <v>20.3989025753832</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J18" t="n">
-        <v>55.9761478186407</v>
+        <v>69.77776247038076</v>
       </c>
       <c r="K18" t="n">
-        <v>95.67215237170485</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L18" t="n">
-        <v>128.6430155406809</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M18" t="n">
-        <v>150.1203314369283</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N18" t="n">
-        <v>154.0935699130762</v>
+        <v>192.0872539218749</v>
       </c>
       <c r="O18" t="n">
-        <v>140.9655118480015</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P18" t="n">
-        <v>113.1372509970743</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.62925612152262</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R18" t="n">
-        <v>36.78558787988849</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S18" t="n">
-        <v>11.00501304544558</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T18" t="n">
-        <v>2.388100823793267</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.04858950081499056</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.6191842398937591</v>
       </c>
       <c r="H19" t="n">
-        <v>4.416233543249089</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I19" t="n">
-        <v>14.93752613606133</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J19" t="n">
-        <v>35.1176362636484</v>
+        <v>43.77632576048877</v>
       </c>
       <c r="K19" t="n">
-        <v>57.70906409276412</v>
+        <v>71.937950780384</v>
       </c>
       <c r="L19" t="n">
-        <v>73.8477335033697</v>
+        <v>92.05580962929581</v>
       </c>
       <c r="M19" t="n">
-        <v>77.86208076303065</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N19" t="n">
-        <v>76.01069451279336</v>
+        <v>94.75207554665141</v>
       </c>
       <c r="O19" t="n">
-        <v>70.2081790699763</v>
+        <v>87.5188778351652</v>
       </c>
       <c r="P19" t="n">
-        <v>60.07522603209183</v>
+        <v>74.88751934133245</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.59297256325903</v>
+        <v>51.84823666964924</v>
       </c>
       <c r="R19" t="n">
-        <v>22.33403998457052</v>
+        <v>27.84077500467756</v>
       </c>
       <c r="S19" t="n">
-        <v>8.656359613914615</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T19" t="n">
-        <v>2.122320823442811</v>
+        <v>2.64560538863697</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.107337284122839</v>
+        <v>1.380365048278457</v>
       </c>
       <c r="H20" t="n">
-        <v>11.34051796102303</v>
+        <v>14.13666355068175</v>
       </c>
       <c r="I20" t="n">
-        <v>42.69062064614581</v>
+        <v>53.21652352375527</v>
       </c>
       <c r="J20" t="n">
-        <v>93.98386781832093</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K20" t="n">
-        <v>140.8574550552407</v>
+        <v>175.5876105099509</v>
       </c>
       <c r="L20" t="n">
-        <v>174.7461284642151</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M20" t="n">
-        <v>194.4387378907347</v>
+        <v>242.3800242835248</v>
       </c>
       <c r="N20" t="n">
-        <v>197.5849599492487</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O20" t="n">
-        <v>186.5738748302522</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P20" t="n">
-        <v>159.2364856284696</v>
+        <v>198.4982193987526</v>
       </c>
       <c r="Q20" t="n">
-        <v>119.5799691408204</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R20" t="n">
-        <v>69.55877567378137</v>
+        <v>86.70935596392171</v>
       </c>
       <c r="S20" t="n">
-        <v>25.23344836194923</v>
+        <v>31.45506853764537</v>
       </c>
       <c r="T20" t="n">
-        <v>4.847368961247732</v>
+        <v>6.042547998838949</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.59247767989648</v>
+        <v>0.7385604123878563</v>
       </c>
       <c r="H21" t="n">
-        <v>5.722087066368637</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I21" t="n">
-        <v>20.3989025753832</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J21" t="n">
-        <v>55.9761478186407</v>
+        <v>69.77776247038076</v>
       </c>
       <c r="K21" t="n">
-        <v>95.67215237170485</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L21" t="n">
-        <v>128.6430155406809</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M21" t="n">
-        <v>150.1203314369283</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N21" t="n">
-        <v>154.0935699130762</v>
+        <v>192.0872539218749</v>
       </c>
       <c r="O21" t="n">
-        <v>140.9655118480015</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P21" t="n">
-        <v>113.1372509970743</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.62925612152262</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R21" t="n">
-        <v>36.78558787988849</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S21" t="n">
-        <v>11.00501304544558</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T21" t="n">
-        <v>2.388100823793267</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.04858950081499056</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.6191842398937591</v>
       </c>
       <c r="H22" t="n">
-        <v>4.416233543249089</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I22" t="n">
-        <v>14.93752613606133</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J22" t="n">
-        <v>35.1176362636484</v>
+        <v>43.77632576048877</v>
       </c>
       <c r="K22" t="n">
-        <v>57.70906409276412</v>
+        <v>71.937950780384</v>
       </c>
       <c r="L22" t="n">
-        <v>73.8477335033697</v>
+        <v>92.05580962929581</v>
       </c>
       <c r="M22" t="n">
-        <v>77.86208076303065</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N22" t="n">
-        <v>76.01069451279336</v>
+        <v>94.75207554665141</v>
       </c>
       <c r="O22" t="n">
-        <v>70.2081790699763</v>
+        <v>87.5188778351652</v>
       </c>
       <c r="P22" t="n">
-        <v>60.07522603209183</v>
+        <v>74.88751934133245</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.59297256325903</v>
+        <v>51.84823666964924</v>
       </c>
       <c r="R22" t="n">
-        <v>22.33403998457052</v>
+        <v>27.84077500467756</v>
       </c>
       <c r="S22" t="n">
-        <v>8.656359613914615</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T22" t="n">
-        <v>2.122320823442811</v>
+        <v>2.64560538863697</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.107337284122839</v>
+        <v>1.380365048278457</v>
       </c>
       <c r="H23" t="n">
-        <v>11.34051796102303</v>
+        <v>14.13666355068175</v>
       </c>
       <c r="I23" t="n">
-        <v>42.69062064614581</v>
+        <v>53.21652352375527</v>
       </c>
       <c r="J23" t="n">
-        <v>93.98386781832093</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K23" t="n">
-        <v>140.8574550552407</v>
+        <v>175.5876105099509</v>
       </c>
       <c r="L23" t="n">
-        <v>174.7461284642151</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M23" t="n">
-        <v>194.4387378907347</v>
+        <v>242.3800242835248</v>
       </c>
       <c r="N23" t="n">
-        <v>197.5849599492487</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O23" t="n">
-        <v>186.5738748302522</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P23" t="n">
-        <v>159.2364856284696</v>
+        <v>198.4982193987526</v>
       </c>
       <c r="Q23" t="n">
-        <v>119.5799691408204</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R23" t="n">
-        <v>69.55877567378137</v>
+        <v>86.70935596392171</v>
       </c>
       <c r="S23" t="n">
-        <v>25.23344836194923</v>
+        <v>31.45506853764537</v>
       </c>
       <c r="T23" t="n">
-        <v>4.847368961247732</v>
+        <v>6.042547998838949</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.59247767989648</v>
+        <v>0.7385604123878563</v>
       </c>
       <c r="H24" t="n">
-        <v>5.722087066368637</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I24" t="n">
-        <v>20.3989025753832</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J24" t="n">
-        <v>55.9761478186407</v>
+        <v>69.77776247038076</v>
       </c>
       <c r="K24" t="n">
-        <v>95.67215237170485</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L24" t="n">
-        <v>128.6430155406809</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M24" t="n">
-        <v>150.1203314369283</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N24" t="n">
-        <v>154.0935699130762</v>
+        <v>192.0872539218749</v>
       </c>
       <c r="O24" t="n">
-        <v>140.9655118480015</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P24" t="n">
-        <v>113.1372509970743</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q24" t="n">
-        <v>75.62925612152262</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R24" t="n">
-        <v>36.78558787988849</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S24" t="n">
-        <v>11.00501304544558</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T24" t="n">
-        <v>2.388100823793267</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.04858950081499056</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.6191842398937591</v>
       </c>
       <c r="H25" t="n">
-        <v>4.416233543249089</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I25" t="n">
-        <v>14.93752613606133</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J25" t="n">
-        <v>35.1176362636484</v>
+        <v>43.77632576048877</v>
       </c>
       <c r="K25" t="n">
-        <v>57.70906409276412</v>
+        <v>71.937950780384</v>
       </c>
       <c r="L25" t="n">
-        <v>73.8477335033697</v>
+        <v>92.05580962929581</v>
       </c>
       <c r="M25" t="n">
-        <v>77.86208076303065</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N25" t="n">
-        <v>76.01069451279336</v>
+        <v>94.75207554665141</v>
       </c>
       <c r="O25" t="n">
-        <v>70.2081790699763</v>
+        <v>87.5188778351652</v>
       </c>
       <c r="P25" t="n">
-        <v>60.07522603209183</v>
+        <v>74.88751934133245</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.59297256325903</v>
+        <v>51.84823666964924</v>
       </c>
       <c r="R25" t="n">
-        <v>22.33403998457052</v>
+        <v>27.84077500467756</v>
       </c>
       <c r="S25" t="n">
-        <v>8.656359613914615</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T25" t="n">
-        <v>2.122320823442811</v>
+        <v>2.64560538863697</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.107337284122839</v>
+        <v>1.380365048278457</v>
       </c>
       <c r="H26" t="n">
-        <v>11.34051796102303</v>
+        <v>14.13666355068175</v>
       </c>
       <c r="I26" t="n">
-        <v>42.69062064614581</v>
+        <v>53.21652352375527</v>
       </c>
       <c r="J26" t="n">
-        <v>93.98386781832093</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K26" t="n">
-        <v>140.8574550552407</v>
+        <v>175.5876105099509</v>
       </c>
       <c r="L26" t="n">
-        <v>174.7461284642151</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M26" t="n">
-        <v>194.4387378907347</v>
+        <v>242.3800242835248</v>
       </c>
       <c r="N26" t="n">
-        <v>197.5849599492487</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O26" t="n">
-        <v>186.5738748302522</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P26" t="n">
-        <v>159.2364856284696</v>
+        <v>198.4982193987526</v>
       </c>
       <c r="Q26" t="n">
-        <v>119.5799691408204</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R26" t="n">
-        <v>69.55877567378137</v>
+        <v>86.70935596392171</v>
       </c>
       <c r="S26" t="n">
-        <v>25.23344836194923</v>
+        <v>31.45506853764537</v>
       </c>
       <c r="T26" t="n">
-        <v>4.847368961247732</v>
+        <v>6.042547998838949</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.59247767989648</v>
+        <v>0.7385604123878563</v>
       </c>
       <c r="H27" t="n">
-        <v>5.722087066368637</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I27" t="n">
-        <v>20.3989025753832</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J27" t="n">
-        <v>55.9761478186407</v>
+        <v>69.77776247038076</v>
       </c>
       <c r="K27" t="n">
-        <v>95.67215237170485</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L27" t="n">
-        <v>128.6430155406809</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M27" t="n">
-        <v>150.1203314369283</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N27" t="n">
-        <v>154.0935699130762</v>
+        <v>192.0872539218749</v>
       </c>
       <c r="O27" t="n">
-        <v>140.9655118480015</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P27" t="n">
-        <v>113.1372509970743</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q27" t="n">
-        <v>75.62925612152262</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R27" t="n">
-        <v>36.78558787988849</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S27" t="n">
-        <v>11.00501304544558</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T27" t="n">
-        <v>2.388100823793267</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.04858950081499056</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.6191842398937591</v>
       </c>
       <c r="H28" t="n">
-        <v>4.416233543249089</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I28" t="n">
-        <v>14.93752613606133</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J28" t="n">
-        <v>35.1176362636484</v>
+        <v>43.77632576048877</v>
       </c>
       <c r="K28" t="n">
-        <v>57.70906409276412</v>
+        <v>71.937950780384</v>
       </c>
       <c r="L28" t="n">
-        <v>73.8477335033697</v>
+        <v>92.05580962929581</v>
       </c>
       <c r="M28" t="n">
-        <v>77.86208076303065</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N28" t="n">
-        <v>76.01069451279336</v>
+        <v>94.75207554665141</v>
       </c>
       <c r="O28" t="n">
-        <v>70.2081790699763</v>
+        <v>87.5188778351652</v>
       </c>
       <c r="P28" t="n">
-        <v>60.07522603209183</v>
+        <v>74.88751934133245</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.59297256325903</v>
+        <v>51.84823666964924</v>
       </c>
       <c r="R28" t="n">
-        <v>22.33403998457052</v>
+        <v>27.84077500467756</v>
       </c>
       <c r="S28" t="n">
-        <v>8.656359613914615</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T28" t="n">
-        <v>2.122320823442811</v>
+        <v>2.64560538863697</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.107337284122839</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H29" t="n">
-        <v>11.34051796102303</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I29" t="n">
-        <v>42.69062064614581</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J29" t="n">
-        <v>93.98386781832093</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K29" t="n">
-        <v>140.8574550552407</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L29" t="n">
-        <v>174.7461284642151</v>
+        <v>217.8319573562029</v>
       </c>
       <c r="M29" t="n">
-        <v>194.4387378907347</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N29" t="n">
-        <v>197.5849599492487</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O29" t="n">
-        <v>186.5738748302522</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P29" t="n">
-        <v>159.2364856284696</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q29" t="n">
-        <v>119.5799691408204</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R29" t="n">
-        <v>69.55877567378137</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S29" t="n">
-        <v>25.23344836194923</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T29" t="n">
-        <v>4.847368961247732</v>
+        <v>6.04254799883895</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.59247767989648</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H30" t="n">
-        <v>5.722087066368637</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I30" t="n">
-        <v>20.3989025753832</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J30" t="n">
-        <v>55.9761478186407</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K30" t="n">
-        <v>95.67215237170485</v>
+        <v>119.2613101003672</v>
       </c>
       <c r="L30" t="n">
-        <v>128.6430155406809</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M30" t="n">
-        <v>150.1203314369283</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N30" t="n">
-        <v>154.0935699130762</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O30" t="n">
-        <v>140.9655118480015</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P30" t="n">
-        <v>113.1372509970743</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q30" t="n">
-        <v>75.62925612152262</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R30" t="n">
-        <v>36.78558787988849</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S30" t="n">
-        <v>11.00501304544558</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T30" t="n">
-        <v>2.388100823793267</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H31" t="n">
-        <v>4.416233543249089</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I31" t="n">
-        <v>14.93752613606133</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J31" t="n">
-        <v>35.1176362636484</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K31" t="n">
-        <v>57.70906409276412</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L31" t="n">
-        <v>73.8477335033697</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M31" t="n">
-        <v>77.86208076303065</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N31" t="n">
-        <v>76.01069451279336</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O31" t="n">
-        <v>70.2081790699763</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P31" t="n">
-        <v>60.07522603209183</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.59297256325903</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R31" t="n">
-        <v>22.33403998457052</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S31" t="n">
-        <v>8.656359613914615</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T31" t="n">
-        <v>2.122320823442811</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.107337284122839</v>
+        <v>1.380365048278457</v>
       </c>
       <c r="H32" t="n">
-        <v>11.34051796102303</v>
+        <v>14.13666355068175</v>
       </c>
       <c r="I32" t="n">
-        <v>42.69062064614581</v>
+        <v>53.21652352375527</v>
       </c>
       <c r="J32" t="n">
-        <v>93.98386781832093</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K32" t="n">
-        <v>140.8574550552407</v>
+        <v>175.5876105099509</v>
       </c>
       <c r="L32" t="n">
-        <v>174.7461284642151</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M32" t="n">
-        <v>194.4387378907347</v>
+        <v>242.3800242835248</v>
       </c>
       <c r="N32" t="n">
-        <v>197.5849599492487</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O32" t="n">
-        <v>186.5738748302522</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P32" t="n">
-        <v>159.2364856284696</v>
+        <v>198.4982193987526</v>
       </c>
       <c r="Q32" t="n">
-        <v>119.5799691408204</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R32" t="n">
-        <v>69.55877567378137</v>
+        <v>86.70935596392171</v>
       </c>
       <c r="S32" t="n">
-        <v>25.23344836194923</v>
+        <v>31.45506853764537</v>
       </c>
       <c r="T32" t="n">
-        <v>4.847368961247732</v>
+        <v>6.042547998838949</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.59247767989648</v>
+        <v>0.7385604123878563</v>
       </c>
       <c r="H33" t="n">
-        <v>5.722087066368637</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I33" t="n">
-        <v>20.3989025753832</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J33" t="n">
-        <v>55.9761478186407</v>
+        <v>69.77776247038076</v>
       </c>
       <c r="K33" t="n">
-        <v>95.67215237170485</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L33" t="n">
-        <v>128.6430155406809</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M33" t="n">
-        <v>150.1203314369283</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N33" t="n">
-        <v>154.0935699130762</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O33" t="n">
-        <v>140.9655118480015</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P33" t="n">
-        <v>113.1372509970743</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q33" t="n">
-        <v>75.62925612152262</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R33" t="n">
-        <v>36.78558787988849</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S33" t="n">
-        <v>11.00501304544558</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T33" t="n">
-        <v>2.388100823793267</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.04858950081499056</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.6191842398937591</v>
       </c>
       <c r="H34" t="n">
-        <v>4.416233543249089</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I34" t="n">
-        <v>14.93752613606133</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J34" t="n">
-        <v>35.1176362636484</v>
+        <v>43.77632576048877</v>
       </c>
       <c r="K34" t="n">
-        <v>57.70906409276412</v>
+        <v>71.937950780384</v>
       </c>
       <c r="L34" t="n">
-        <v>73.8477335033697</v>
+        <v>92.05580962929581</v>
       </c>
       <c r="M34" t="n">
-        <v>77.86208076303065</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N34" t="n">
-        <v>76.01069451279336</v>
+        <v>94.75207554665141</v>
       </c>
       <c r="O34" t="n">
-        <v>70.2081790699763</v>
+        <v>87.5188778351652</v>
       </c>
       <c r="P34" t="n">
-        <v>60.07522603209183</v>
+        <v>74.88751934133245</v>
       </c>
       <c r="Q34" t="n">
-        <v>41.59297256325903</v>
+        <v>51.84823666964924</v>
       </c>
       <c r="R34" t="n">
-        <v>22.33403998457052</v>
+        <v>27.84077500467756</v>
       </c>
       <c r="S34" t="n">
-        <v>8.656359613914615</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T34" t="n">
-        <v>2.122320823442811</v>
+        <v>2.64560538863697</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.107337284122839</v>
+        <v>1.380365048278457</v>
       </c>
       <c r="H35" t="n">
-        <v>11.34051796102303</v>
+        <v>14.13666355068175</v>
       </c>
       <c r="I35" t="n">
-        <v>42.69062064614581</v>
+        <v>53.21652352375527</v>
       </c>
       <c r="J35" t="n">
-        <v>93.98386781832093</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K35" t="n">
-        <v>140.8574550552407</v>
+        <v>175.5876105099509</v>
       </c>
       <c r="L35" t="n">
-        <v>174.7461284642151</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M35" t="n">
-        <v>194.4387378907347</v>
+        <v>242.3800242835248</v>
       </c>
       <c r="N35" t="n">
-        <v>197.5849599492487</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O35" t="n">
-        <v>186.5738748302522</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P35" t="n">
-        <v>159.2364856284696</v>
+        <v>198.4982193987526</v>
       </c>
       <c r="Q35" t="n">
-        <v>119.5799691408204</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R35" t="n">
-        <v>69.55877567378137</v>
+        <v>86.70935596392171</v>
       </c>
       <c r="S35" t="n">
-        <v>25.23344836194923</v>
+        <v>31.45506853764537</v>
       </c>
       <c r="T35" t="n">
-        <v>4.847368961247732</v>
+        <v>6.042547998838949</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.59247767989648</v>
+        <v>0.7385604123878563</v>
       </c>
       <c r="H36" t="n">
-        <v>5.722087066368637</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I36" t="n">
-        <v>20.3989025753832</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J36" t="n">
-        <v>55.9761478186407</v>
+        <v>69.77776247038076</v>
       </c>
       <c r="K36" t="n">
-        <v>95.67215237170485</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L36" t="n">
-        <v>128.6430155406809</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M36" t="n">
-        <v>150.1203314369283</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N36" t="n">
-        <v>154.0935699130762</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O36" t="n">
-        <v>140.9655118480015</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P36" t="n">
-        <v>113.1372509970743</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q36" t="n">
-        <v>75.62925612152262</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R36" t="n">
-        <v>36.78558787988849</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S36" t="n">
-        <v>11.00501304544558</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T36" t="n">
-        <v>2.388100823793267</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.04858950081499056</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.6191842398937591</v>
       </c>
       <c r="H37" t="n">
-        <v>4.416233543249089</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I37" t="n">
-        <v>14.93752613606133</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J37" t="n">
-        <v>35.1176362636484</v>
+        <v>43.77632576048877</v>
       </c>
       <c r="K37" t="n">
-        <v>57.70906409276412</v>
+        <v>71.937950780384</v>
       </c>
       <c r="L37" t="n">
-        <v>73.8477335033697</v>
+        <v>92.05580962929581</v>
       </c>
       <c r="M37" t="n">
-        <v>77.86208076303065</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N37" t="n">
-        <v>76.01069451279336</v>
+        <v>94.75207554665141</v>
       </c>
       <c r="O37" t="n">
-        <v>70.2081790699763</v>
+        <v>87.5188778351652</v>
       </c>
       <c r="P37" t="n">
-        <v>60.07522603209183</v>
+        <v>74.88751934133245</v>
       </c>
       <c r="Q37" t="n">
-        <v>41.59297256325903</v>
+        <v>51.84823666964924</v>
       </c>
       <c r="R37" t="n">
-        <v>22.33403998457052</v>
+        <v>27.84077500467756</v>
       </c>
       <c r="S37" t="n">
-        <v>8.656359613914615</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T37" t="n">
-        <v>2.122320823442811</v>
+        <v>2.64560538863697</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.107337284122839</v>
+        <v>1.380365048278457</v>
       </c>
       <c r="H38" t="n">
-        <v>11.34051796102303</v>
+        <v>14.13666355068175</v>
       </c>
       <c r="I38" t="n">
-        <v>42.69062064614581</v>
+        <v>53.21652352375527</v>
       </c>
       <c r="J38" t="n">
-        <v>93.98386781832093</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K38" t="n">
-        <v>140.8574550552407</v>
+        <v>175.5876105099509</v>
       </c>
       <c r="L38" t="n">
-        <v>174.7461284642151</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M38" t="n">
-        <v>194.4387378907347</v>
+        <v>242.3800242835248</v>
       </c>
       <c r="N38" t="n">
-        <v>197.5849599492487</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O38" t="n">
-        <v>186.5738748302522</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P38" t="n">
-        <v>159.2364856284696</v>
+        <v>198.4982193987526</v>
       </c>
       <c r="Q38" t="n">
-        <v>119.5799691408204</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R38" t="n">
-        <v>69.55877567378137</v>
+        <v>86.70935596392171</v>
       </c>
       <c r="S38" t="n">
-        <v>25.23344836194923</v>
+        <v>31.45506853764537</v>
       </c>
       <c r="T38" t="n">
-        <v>4.847368961247732</v>
+        <v>6.042547998838949</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.59247767989648</v>
+        <v>0.7385604123878563</v>
       </c>
       <c r="H39" t="n">
-        <v>5.722087066368637</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I39" t="n">
-        <v>20.3989025753832</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J39" t="n">
-        <v>55.9761478186407</v>
+        <v>69.77776247038076</v>
       </c>
       <c r="K39" t="n">
-        <v>95.67215237170485</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L39" t="n">
-        <v>128.6430155406809</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M39" t="n">
-        <v>150.1203314369283</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N39" t="n">
-        <v>154.0935699130762</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O39" t="n">
-        <v>140.9655118480015</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P39" t="n">
-        <v>113.1372509970743</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q39" t="n">
-        <v>75.62925612152262</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R39" t="n">
-        <v>36.78558787988849</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S39" t="n">
-        <v>11.00501304544558</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T39" t="n">
-        <v>2.388100823793267</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.04858950081499056</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.6191842398937591</v>
       </c>
       <c r="H40" t="n">
-        <v>4.416233543249089</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I40" t="n">
-        <v>14.93752613606133</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J40" t="n">
-        <v>35.1176362636484</v>
+        <v>43.77632576048877</v>
       </c>
       <c r="K40" t="n">
-        <v>57.70906409276412</v>
+        <v>71.937950780384</v>
       </c>
       <c r="L40" t="n">
-        <v>73.8477335033697</v>
+        <v>92.05580962929581</v>
       </c>
       <c r="M40" t="n">
-        <v>77.86208076303065</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N40" t="n">
-        <v>76.01069451279336</v>
+        <v>94.75207554665141</v>
       </c>
       <c r="O40" t="n">
-        <v>70.2081790699763</v>
+        <v>87.5188778351652</v>
       </c>
       <c r="P40" t="n">
-        <v>60.07522603209183</v>
+        <v>74.88751934133245</v>
       </c>
       <c r="Q40" t="n">
-        <v>41.59297256325903</v>
+        <v>51.84823666964924</v>
       </c>
       <c r="R40" t="n">
-        <v>22.33403998457052</v>
+        <v>27.84077500467756</v>
       </c>
       <c r="S40" t="n">
-        <v>8.656359613914615</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T40" t="n">
-        <v>2.122320823442811</v>
+        <v>2.64560538863697</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.107337284122839</v>
+        <v>1.380365048278457</v>
       </c>
       <c r="H41" t="n">
-        <v>11.34051796102303</v>
+        <v>14.13666355068175</v>
       </c>
       <c r="I41" t="n">
-        <v>42.6906206461458</v>
+        <v>53.21652352375527</v>
       </c>
       <c r="J41" t="n">
-        <v>93.98386781832092</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K41" t="n">
-        <v>140.8574550552407</v>
+        <v>175.5876105099509</v>
       </c>
       <c r="L41" t="n">
-        <v>174.7461284642151</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M41" t="n">
-        <v>194.4387378907346</v>
+        <v>242.3800242835248</v>
       </c>
       <c r="N41" t="n">
-        <v>197.5849599492487</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O41" t="n">
-        <v>186.5738748302522</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P41" t="n">
-        <v>159.2364856284696</v>
+        <v>198.4982193987526</v>
       </c>
       <c r="Q41" t="n">
-        <v>119.5799691408203</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R41" t="n">
-        <v>69.55877567378137</v>
+        <v>86.70935596392171</v>
       </c>
       <c r="S41" t="n">
-        <v>25.23344836194923</v>
+        <v>31.45506853764537</v>
       </c>
       <c r="T41" t="n">
-        <v>4.847368961247732</v>
+        <v>6.042547998838949</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08858698272982712</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5924776798964799</v>
+        <v>0.7385604123878563</v>
       </c>
       <c r="H42" t="n">
-        <v>5.722087066368637</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I42" t="n">
-        <v>20.39890257538319</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J42" t="n">
-        <v>55.97614781864069</v>
+        <v>69.77776247038076</v>
       </c>
       <c r="K42" t="n">
-        <v>95.67215237170485</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L42" t="n">
-        <v>128.6430155406809</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M42" t="n">
-        <v>150.1203314369282</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N42" t="n">
-        <v>154.0935699130762</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O42" t="n">
-        <v>140.9655118480015</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P42" t="n">
-        <v>113.1372509970743</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q42" t="n">
-        <v>75.62925612152262</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R42" t="n">
-        <v>36.78558787988848</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S42" t="n">
-        <v>11.00501304544558</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T42" t="n">
-        <v>2.388100823793267</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.04858950081499056</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4967133842100198</v>
+        <v>0.6191842398937591</v>
       </c>
       <c r="H43" t="n">
-        <v>4.416233543249088</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I43" t="n">
-        <v>14.93752613606133</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J43" t="n">
-        <v>35.1176362636484</v>
+        <v>43.77632576048877</v>
       </c>
       <c r="K43" t="n">
-        <v>57.70906409276411</v>
+        <v>71.937950780384</v>
       </c>
       <c r="L43" t="n">
-        <v>73.8477335033697</v>
+        <v>92.05580962929581</v>
       </c>
       <c r="M43" t="n">
-        <v>77.86208076303065</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N43" t="n">
-        <v>76.01069451279335</v>
+        <v>94.75207554665141</v>
       </c>
       <c r="O43" t="n">
-        <v>70.20817906997628</v>
+        <v>87.5188778351652</v>
       </c>
       <c r="P43" t="n">
-        <v>60.07522603209183</v>
+        <v>74.88751934133245</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.59297256325902</v>
+        <v>51.84823666964924</v>
       </c>
       <c r="R43" t="n">
-        <v>22.33403998457052</v>
+        <v>27.84077500467756</v>
       </c>
       <c r="S43" t="n">
-        <v>8.656359613914615</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T43" t="n">
-        <v>2.122320823442811</v>
+        <v>2.64560538863697</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.252954503067492</v>
+        <v>1.380365048278457</v>
       </c>
       <c r="H44" t="n">
-        <v>12.83182030453995</v>
+        <v>14.13666355068175</v>
       </c>
       <c r="I44" t="n">
-        <v>48.30452847950953</v>
+        <v>53.21652352375527</v>
       </c>
       <c r="J44" t="n">
-        <v>106.3429472547246</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K44" t="n">
-        <v>159.3805113695716</v>
+        <v>175.5876105099509</v>
       </c>
       <c r="L44" t="n">
-        <v>197.7256177428234</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M44" t="n">
-        <v>220.0078473867499</v>
+        <v>242.3800242835248</v>
       </c>
       <c r="N44" t="n">
-        <v>223.5678043685904</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O44" t="n">
-        <v>211.108738028713</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P44" t="n">
-        <v>180.1764237342343</v>
+        <v>198.4982193987526</v>
       </c>
       <c r="Q44" t="n">
-        <v>135.3049905931297</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R44" t="n">
-        <v>78.70590330331341</v>
+        <v>86.70935596392171</v>
       </c>
       <c r="S44" t="n">
-        <v>28.5517007386505</v>
+        <v>31.45506853764537</v>
       </c>
       <c r="T44" t="n">
-        <v>5.484808337177948</v>
+        <v>6.042547998838949</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6703897607686119</v>
+        <v>0.7385604123878563</v>
       </c>
       <c r="H45" t="n">
-        <v>6.474553742160015</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I45" t="n">
-        <v>23.08140185102458</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J45" t="n">
-        <v>63.33713086279241</v>
+        <v>69.77776247038076</v>
       </c>
       <c r="K45" t="n">
-        <v>108.2532448342894</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L45" t="n">
-        <v>145.559846959869</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M45" t="n">
-        <v>169.8614757877311</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N45" t="n">
-        <v>174.3572036132365</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O45" t="n">
-        <v>159.5027778614688</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P45" t="n">
-        <v>128.015041247122</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q45" t="n">
-        <v>85.57466490091966</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R45" t="n">
-        <v>41.62297128701962</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S45" t="n">
-        <v>12.45219577568013</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T45" t="n">
-        <v>2.70214118485243</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04858950081499056</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6191842398937591</v>
       </c>
       <c r="H46" t="n">
-        <v>4.996977690491839</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I46" t="n">
-        <v>16.9018427404366</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J46" t="n">
-        <v>39.73568046927914</v>
+        <v>43.77632576048877</v>
       </c>
       <c r="K46" t="n">
-        <v>65.29792932973992</v>
+        <v>71.937950780384</v>
       </c>
       <c r="L46" t="n">
-        <v>83.55886825184406</v>
+        <v>92.05580962929581</v>
       </c>
       <c r="M46" t="n">
-        <v>88.10111075373283</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N46" t="n">
-        <v>86.00626325567394</v>
+        <v>94.75207554665141</v>
       </c>
       <c r="O46" t="n">
-        <v>79.44070463370868</v>
+        <v>87.5188778351652</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97524661994207</v>
+        <v>74.88751934133245</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.06253732834386</v>
+        <v>51.84823666964924</v>
       </c>
       <c r="R46" t="n">
-        <v>25.27101396438917</v>
+        <v>27.84077500467756</v>
       </c>
       <c r="S46" t="n">
-        <v>9.794689399460985</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T46" t="n">
-        <v>2.40141054655538</v>
+        <v>2.64560538863697</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0306563048496432</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
